--- a/jua.xlsx
+++ b/jua.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q253"/>
+  <dimension ref="A1:Q255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,11 +457,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6957</v>
+        <v>7062</v>
       </c>
       <c r="J2" t="n">
-        <v>3188.91466</v>
+        <v>3237.04403</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
         <v>126</v>
@@ -497,16 +497,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0181</v>
+        <v>0.0178</v>
       </c>
       <c r="O2" t="n">
         <v>218162</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,15 +514,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020-11-28</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6957</v>
+        <v>7041</v>
       </c>
       <c r="J3" t="n">
-        <v>3188.91466</v>
+        <v>3227.41816</v>
       </c>
       <c r="K3" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>126</v>
@@ -558,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0181</v>
+        <v>0.0179</v>
       </c>
       <c r="O3" t="n">
         <v>218162</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -575,15 +575,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020-11-27</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -604,22 +604,22 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6905</v>
+        <v>7029</v>
       </c>
       <c r="J4" t="n">
-        <v>3165.07916</v>
+        <v>3221.91766</v>
       </c>
       <c r="K4" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="L4" t="n">
         <v>126</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0182</v>
+        <v>0.0179</v>
       </c>
       <c r="O4" t="n">
         <v>218162</v>
@@ -640,11 +640,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2020-11-28</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6891</v>
+        <v>6957</v>
       </c>
       <c r="J5" t="n">
-        <v>3158.66191</v>
+        <v>3188.91466</v>
       </c>
       <c r="K5" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L5" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -701,11 +701,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2020-11-27</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6851</v>
+        <v>6905</v>
       </c>
       <c r="J6" t="n">
-        <v>3140.32691</v>
+        <v>3165.07916</v>
       </c>
       <c r="K6" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0.0182</v>
@@ -762,11 +762,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
+          <t>2020-11-26</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6817</v>
+        <v>6891</v>
       </c>
       <c r="J7" t="n">
-        <v>3124.74216</v>
+        <v>3158.66191</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
         <v>125</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0183</v>
+        <v>0.0181</v>
       </c>
       <c r="O7" t="n">
         <v>218162</v>
@@ -823,11 +823,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2020-11-23</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6813</v>
+        <v>6851</v>
       </c>
       <c r="J8" t="n">
-        <v>3122.90866</v>
+        <v>3140.32691</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L8" t="n">
         <v>125</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0183</v>
+        <v>0.0182</v>
       </c>
       <c r="O8" t="n">
         <v>218162</v>
@@ -884,11 +884,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>2020-11-24</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -909,22 +909,22 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6811</v>
+        <v>6817</v>
       </c>
       <c r="J9" t="n">
-        <v>3121.99191</v>
+        <v>3124.74216</v>
       </c>
       <c r="K9" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>125</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0184</v>
+        <v>0.0183</v>
       </c>
       <c r="O9" t="n">
         <v>218162</v>
@@ -941,15 +941,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>2020-11-23</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6786</v>
+        <v>6813</v>
       </c>
       <c r="J10" t="n">
-        <v>3110.53254</v>
+        <v>3122.90866</v>
       </c>
       <c r="K10" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1002,15 +1002,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6764</v>
+        <v>6811</v>
       </c>
       <c r="J11" t="n">
-        <v>3100.44829</v>
+        <v>3121.99191</v>
       </c>
       <c r="K11" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L11" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0183</v>
+        <v>0.0184</v>
       </c>
       <c r="O11" t="n">
         <v>218162</v>
@@ -1067,11 +1067,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2020-11-19</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6708</v>
+        <v>6786</v>
       </c>
       <c r="J12" t="n">
-        <v>3074.77929</v>
+        <v>3110.53254</v>
       </c>
       <c r="K12" t="n">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="L12" t="n">
         <v>124</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0185</v>
+        <v>0.0183</v>
       </c>
       <c r="O12" t="n">
         <v>218162</v>
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2020-11-18</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6612</v>
+        <v>6764</v>
       </c>
       <c r="J13" t="n">
-        <v>3030.7753</v>
+        <v>3100.44829</v>
       </c>
       <c r="K13" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="L13" t="n">
         <v>124</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0188</v>
+        <v>0.0183</v>
       </c>
       <c r="O13" t="n">
         <v>218162</v>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2020-11-19</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6588</v>
+        <v>6708</v>
       </c>
       <c r="J14" t="n">
-        <v>3019.7743</v>
+        <v>3074.77929</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="L14" t="n">
         <v>124</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0188</v>
+        <v>0.0185</v>
       </c>
       <c r="O14" t="n">
         <v>218162</v>
@@ -1250,11 +1250,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2020-11-16</t>
+          <t>2020-11-18</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1275,19 +1275,19 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6587</v>
+        <v>6612</v>
       </c>
       <c r="J15" t="n">
-        <v>3019.31592</v>
+        <v>3030.7753</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L15" t="n">
         <v>124</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0.0188</v>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,22 +1336,22 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6587</v>
+        <v>6588</v>
       </c>
       <c r="J16" t="n">
-        <v>3019.31592</v>
+        <v>3019.7743</v>
       </c>
       <c r="K16" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0187</v>
+        <v>0.0188</v>
       </c>
       <c r="O16" t="n">
         <v>218162</v>
@@ -1368,15 +1368,15 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2020-11-16</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6551</v>
+        <v>6587</v>
       </c>
       <c r="J17" t="n">
-        <v>3002.81442</v>
+        <v>3019.31592</v>
       </c>
       <c r="K17" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0186</v>
+        <v>0.0188</v>
       </c>
       <c r="O17" t="n">
         <v>218162</v>
@@ -1429,15 +1429,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6482</v>
+        <v>6587</v>
       </c>
       <c r="J18" t="n">
-        <v>2971.18655</v>
+        <v>3019.31592</v>
       </c>
       <c r="K18" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="L18" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0188</v>
+        <v>0.0187</v>
       </c>
       <c r="O18" t="n">
         <v>218162</v>
@@ -1494,11 +1494,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2020-11-12</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6413</v>
+        <v>6551</v>
       </c>
       <c r="J19" t="n">
-        <v>2939.55868</v>
+        <v>3002.81442</v>
       </c>
       <c r="K19" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L19" t="n">
         <v>122</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.019</v>
+        <v>0.0186</v>
       </c>
       <c r="O19" t="n">
         <v>218162</v>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6326</v>
+        <v>6482</v>
       </c>
       <c r="J20" t="n">
-        <v>2899.68005</v>
+        <v>2971.18655</v>
       </c>
       <c r="K20" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L20" t="n">
         <v>122</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0193</v>
+        <v>0.0188</v>
       </c>
       <c r="O20" t="n">
         <v>218162</v>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2020-11-10</t>
+          <t>2020-11-12</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6252</v>
+        <v>6413</v>
       </c>
       <c r="J21" t="n">
-        <v>2865.76031</v>
+        <v>2939.55868</v>
       </c>
       <c r="K21" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="L21" t="n">
         <v>122</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0195</v>
+        <v>0.019</v>
       </c>
       <c r="O21" t="n">
         <v>218162</v>
@@ -1677,11 +1677,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2020-11-09</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6221</v>
+        <v>6326</v>
       </c>
       <c r="J22" t="n">
-        <v>2851.55068</v>
+        <v>2899.68005</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L22" t="n">
         <v>122</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0196</v>
+        <v>0.0193</v>
       </c>
       <c r="O22" t="n">
         <v>218162</v>
@@ -1738,11 +1738,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2020-11-08</t>
+          <t>2020-11-10</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6221</v>
+        <v>6252</v>
       </c>
       <c r="J23" t="n">
-        <v>2851.55068</v>
+        <v>2865.76031</v>
       </c>
       <c r="K23" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L23" t="n">
         <v>122</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0196</v>
+        <v>0.0195</v>
       </c>
       <c r="O23" t="n">
         <v>218162</v>
@@ -1795,15 +1795,15 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-11-07</t>
+          <t>2020-11-09</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6170</v>
+        <v>6221</v>
       </c>
       <c r="J24" t="n">
-        <v>2828.17356</v>
+        <v>2851.55068</v>
       </c>
       <c r="K24" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1856,15 +1856,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2020-11-08</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1885,22 +1885,22 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6104</v>
+        <v>6221</v>
       </c>
       <c r="J25" t="n">
-        <v>2797.92081</v>
+        <v>2851.55068</v>
       </c>
       <c r="K25" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L25" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0198</v>
+        <v>0.0196</v>
       </c>
       <c r="O25" t="n">
         <v>218162</v>
@@ -1921,11 +1921,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2020-11-05</t>
+          <t>2020-11-07</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1946,22 +1946,22 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6040</v>
+        <v>6170</v>
       </c>
       <c r="J26" t="n">
-        <v>2768.58481</v>
+        <v>2828.17356</v>
       </c>
       <c r="K26" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="L26" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0199</v>
+        <v>0.0196</v>
       </c>
       <c r="O26" t="n">
         <v>218162</v>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2007,22 +2007,22 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6001</v>
+        <v>6104</v>
       </c>
       <c r="J27" t="n">
-        <v>2750.70819</v>
+        <v>2797.92081</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="L27" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0195</v>
+        <v>0.0198</v>
       </c>
       <c r="O27" t="n">
         <v>218162</v>
@@ -2043,11 +2043,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-11-05</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2068,22 +2068,22 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5999</v>
+        <v>6040</v>
       </c>
       <c r="J28" t="n">
-        <v>2749.79144</v>
+        <v>2768.58481</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="L28" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0195</v>
+        <v>0.0199</v>
       </c>
       <c r="O28" t="n">
         <v>218162</v>
@@ -2104,11 +2104,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2020-11-02</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5998</v>
+        <v>6001</v>
       </c>
       <c r="J29" t="n">
-        <v>2749.33306</v>
+        <v>2750.70819</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
@@ -2165,11 +2165,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2020-11-01</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2190,19 +2190,19 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5996</v>
+        <v>5999</v>
       </c>
       <c r="J30" t="n">
-        <v>2748.41631</v>
+        <v>2749.79144</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>117</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0.0195</v>
@@ -2222,15 +2222,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2020-11-02</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2251,22 +2251,22 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5996</v>
+        <v>5998</v>
       </c>
       <c r="J31" t="n">
-        <v>2748.41631</v>
+        <v>2749.33306</v>
       </c>
       <c r="K31" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0193</v>
+        <v>0.0195</v>
       </c>
       <c r="O31" t="n">
         <v>218162</v>
@@ -2283,15 +2283,15 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2020-11-01</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2312,19 +2312,19 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5958</v>
+        <v>5996</v>
       </c>
       <c r="J32" t="n">
-        <v>2730.99807</v>
+        <v>2748.41631</v>
       </c>
       <c r="K32" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>0.0195</v>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020-10-29</t>
+          <t>2020-10-31</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2373,13 +2373,13 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5886</v>
+        <v>5996</v>
       </c>
       <c r="J33" t="n">
-        <v>2697.99507</v>
+        <v>2748.41631</v>
       </c>
       <c r="K33" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="L33" t="n">
         <v>116</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0197</v>
+        <v>0.0193</v>
       </c>
       <c r="O33" t="n">
         <v>218162</v>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5811</v>
+        <v>5958</v>
       </c>
       <c r="J34" t="n">
-        <v>2663.61695</v>
+        <v>2730.99807</v>
       </c>
       <c r="K34" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="L34" t="n">
         <v>116</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02</v>
+        <v>0.0195</v>
       </c>
       <c r="O34" t="n">
         <v>218162</v>
@@ -2470,11 +2470,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2020-10-29</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5755</v>
+        <v>5886</v>
       </c>
       <c r="J35" t="n">
-        <v>2637.94795</v>
+        <v>2697.99507</v>
       </c>
       <c r="K35" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L35" t="n">
         <v>116</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0202</v>
+        <v>0.0197</v>
       </c>
       <c r="O35" t="n">
         <v>218162</v>
@@ -2531,11 +2531,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2020-10-26</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2556,22 +2556,22 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5743</v>
+        <v>5811</v>
       </c>
       <c r="J36" t="n">
-        <v>2632.44745</v>
+        <v>2663.61695</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L36" t="n">
         <v>116</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="O36" t="n">
         <v>218162</v>
@@ -2592,11 +2592,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2020-10-25</t>
+          <t>2020-10-27</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2617,22 +2617,22 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5733</v>
+        <v>5755</v>
       </c>
       <c r="J37" t="n">
-        <v>2627.8637</v>
+        <v>2637.94795</v>
       </c>
       <c r="K37" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L37" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O37" t="n">
         <v>218162</v>
@@ -2649,15 +2649,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-26</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2678,19 +2678,19 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5698</v>
+        <v>5743</v>
       </c>
       <c r="J38" t="n">
-        <v>2611.82057</v>
+        <v>2632.44745</v>
       </c>
       <c r="K38" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0.0202</v>
@@ -2710,15 +2710,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2020-10-25</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2739,22 +2739,22 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5653</v>
+        <v>5733</v>
       </c>
       <c r="J39" t="n">
-        <v>2591.1937</v>
+        <v>2627.8637</v>
       </c>
       <c r="K39" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L39" t="n">
         <v>115</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0203</v>
+        <v>0.0201</v>
       </c>
       <c r="O39" t="n">
         <v>218162</v>
@@ -2775,11 +2775,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2800,22 +2800,22 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5609</v>
+        <v>5698</v>
       </c>
       <c r="J40" t="n">
-        <v>2571.0252</v>
+        <v>2611.82057</v>
       </c>
       <c r="K40" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="L40" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O40" t="n">
         <v>218162</v>
@@ -2836,11 +2836,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2861,19 +2861,19 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5580</v>
+        <v>5653</v>
       </c>
       <c r="J41" t="n">
-        <v>2557.73233</v>
+        <v>2591.1937</v>
       </c>
       <c r="K41" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L41" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
         <v>0.0203</v>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2922,22 +2922,22 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5545</v>
+        <v>5609</v>
       </c>
       <c r="J42" t="n">
-        <v>2541.6892</v>
+        <v>2571.0252</v>
       </c>
       <c r="K42" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L42" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0202</v>
+        <v>0.0201</v>
       </c>
       <c r="O42" t="n">
         <v>218162</v>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2983,19 +2983,19 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5527</v>
+        <v>5580</v>
       </c>
       <c r="J43" t="n">
-        <v>2533.43845</v>
+        <v>2557.73233</v>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L43" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0.0203</v>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2020-10-18</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3044,13 +3044,13 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5518</v>
+        <v>5545</v>
       </c>
       <c r="J44" t="n">
-        <v>2529.31308</v>
+        <v>2541.6892</v>
       </c>
       <c r="K44" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L44" t="n">
         <v>112</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0203</v>
+        <v>0.0202</v>
       </c>
       <c r="O44" t="n">
         <v>218162</v>
@@ -3076,15 +3076,15 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2020-10-17</t>
+          <t>2020-10-19</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>5483</v>
+        <v>5527</v>
       </c>
       <c r="J45" t="n">
-        <v>2513.26996</v>
+        <v>2533.43845</v>
       </c>
       <c r="K45" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L45" t="n">
         <v>112</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0204</v>
+        <v>0.0203</v>
       </c>
       <c r="O45" t="n">
         <v>218162</v>
@@ -3137,15 +3137,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-18</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3166,22 +3166,22 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5449</v>
+        <v>5518</v>
       </c>
       <c r="J46" t="n">
-        <v>2497.68521</v>
+        <v>2529.31308</v>
       </c>
       <c r="K46" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L46" t="n">
         <v>112</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0206</v>
+        <v>0.0203</v>
       </c>
       <c r="O46" t="n">
         <v>218162</v>
@@ -3202,11 +3202,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-10-17</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3227,22 +3227,22 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5417</v>
+        <v>5483</v>
       </c>
       <c r="J47" t="n">
-        <v>2483.01721</v>
+        <v>2513.26996</v>
       </c>
       <c r="K47" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L47" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0205</v>
+        <v>0.0204</v>
       </c>
       <c r="O47" t="n">
         <v>218162</v>
@@ -3263,11 +3263,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3288,22 +3288,22 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5361</v>
+        <v>5449</v>
       </c>
       <c r="J48" t="n">
-        <v>2457.34821</v>
+        <v>2497.68521</v>
       </c>
       <c r="K48" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0207</v>
+        <v>0.0206</v>
       </c>
       <c r="O48" t="n">
         <v>218162</v>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3349,22 +3349,22 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>5342</v>
+        <v>5417</v>
       </c>
       <c r="J49" t="n">
-        <v>2448.63908</v>
+        <v>2483.01721</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="L49" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0206</v>
+        <v>0.0205</v>
       </c>
       <c r="O49" t="n">
         <v>218162</v>
@@ -3385,11 +3385,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3410,22 +3410,22 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5341</v>
+        <v>5361</v>
       </c>
       <c r="J50" t="n">
-        <v>2448.18071</v>
+        <v>2457.34821</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0206</v>
+        <v>0.0207</v>
       </c>
       <c r="O50" t="n">
         <v>218162</v>
@@ -3446,11 +3446,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3471,19 +3471,19 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="J51" t="n">
-        <v>2448.18071</v>
+        <v>2448.63908</v>
       </c>
       <c r="K51" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>110</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0.0206</v>
@@ -3503,15 +3503,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2020-10-10</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3532,22 +3532,22 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5317</v>
+        <v>5341</v>
       </c>
       <c r="J52" t="n">
-        <v>2437.17971</v>
+        <v>2448.18071</v>
       </c>
       <c r="K52" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0205</v>
+        <v>0.0206</v>
       </c>
       <c r="O52" t="n">
         <v>218162</v>
@@ -3564,15 +3564,15 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2020-10-11</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3593,16 +3593,16 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5295</v>
+        <v>5341</v>
       </c>
       <c r="J53" t="n">
-        <v>2427.09546</v>
+        <v>2448.18071</v>
       </c>
       <c r="K53" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L53" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -3629,11 +3629,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2020-10-08</t>
+          <t>2020-10-10</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3654,19 +3654,19 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5277</v>
+        <v>5317</v>
       </c>
       <c r="J54" t="n">
-        <v>2418.84471</v>
+        <v>2437.17971</v>
       </c>
       <c r="K54" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L54" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0.0205</v>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3715,22 +3715,22 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5244</v>
+        <v>5295</v>
       </c>
       <c r="J55" t="n">
-        <v>2403.71834</v>
+        <v>2427.09546</v>
       </c>
       <c r="K55" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L55" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0204</v>
+        <v>0.0206</v>
       </c>
       <c r="O55" t="n">
         <v>218162</v>
@@ -3751,11 +3751,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2020-10-08</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3776,16 +3776,16 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5229</v>
+        <v>5277</v>
       </c>
       <c r="J56" t="n">
-        <v>2396.84271</v>
+        <v>2418.84471</v>
       </c>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L56" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -3812,11 +3812,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5218</v>
+        <v>5244</v>
       </c>
       <c r="J57" t="n">
-        <v>2391.80059</v>
+        <v>2403.71834</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L57" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0203</v>
+        <v>0.0204</v>
       </c>
       <c r="O57" t="n">
         <v>218162</v>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3898,22 +3898,22 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5218</v>
+        <v>5229</v>
       </c>
       <c r="J58" t="n">
-        <v>2391.80059</v>
+        <v>2396.84271</v>
       </c>
       <c r="K58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>0.0203</v>
+        <v>0.0205</v>
       </c>
       <c r="O58" t="n">
         <v>218162</v>
@@ -3930,15 +3930,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5205</v>
+        <v>5218</v>
       </c>
       <c r="J59" t="n">
-        <v>2385.84171</v>
+        <v>2391.80059</v>
       </c>
       <c r="K59" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>106</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0204</v>
+        <v>0.0203</v>
       </c>
       <c r="O59" t="n">
         <v>218162</v>
@@ -3991,15 +3991,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4020,22 +4020,22 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5178</v>
+        <v>5218</v>
       </c>
       <c r="J60" t="n">
-        <v>2373.46559</v>
+        <v>2391.80059</v>
       </c>
       <c r="K60" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L60" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0201</v>
+        <v>0.0203</v>
       </c>
       <c r="O60" t="n">
         <v>218162</v>
@@ -4056,11 +4056,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2020-10-01</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4081,22 +4081,22 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5161</v>
+        <v>5205</v>
       </c>
       <c r="J61" t="n">
-        <v>2365.67322</v>
+        <v>2385.84171</v>
       </c>
       <c r="K61" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L61" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0202</v>
+        <v>0.0204</v>
       </c>
       <c r="O61" t="n">
         <v>218162</v>
@@ -4117,11 +4117,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4142,22 +4142,22 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5125</v>
+        <v>5178</v>
       </c>
       <c r="J62" t="n">
-        <v>2349.17172</v>
+        <v>2373.46559</v>
       </c>
       <c r="K62" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L62" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0199</v>
+        <v>0.0201</v>
       </c>
       <c r="O62" t="n">
         <v>218162</v>
@@ -4178,11 +4178,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2020-10-01</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4203,22 +4203,22 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5094</v>
+        <v>5161</v>
       </c>
       <c r="J63" t="n">
-        <v>2334.96209</v>
+        <v>2365.67322</v>
       </c>
       <c r="K63" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L63" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>0.02</v>
+        <v>0.0202</v>
       </c>
       <c r="O63" t="n">
         <v>218162</v>
@@ -4239,11 +4239,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4264,16 +4264,16 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5081</v>
+        <v>5125</v>
       </c>
       <c r="J64" t="n">
-        <v>2329.00322</v>
+        <v>2349.17172</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L64" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4325,22 +4325,22 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5081</v>
+        <v>5094</v>
       </c>
       <c r="J65" t="n">
-        <v>2329.00322</v>
+        <v>2334.96209</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L65" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="O65" t="n">
         <v>218162</v>
@@ -4357,15 +4357,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4386,13 +4386,13 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5073</v>
+        <v>5081</v>
       </c>
       <c r="J66" t="n">
-        <v>2325.33622</v>
+        <v>2329.00322</v>
       </c>
       <c r="K66" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>101</v>
@@ -4418,15 +4418,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5045</v>
+        <v>5081</v>
       </c>
       <c r="J67" t="n">
-        <v>2312.50172</v>
+        <v>2329.00322</v>
       </c>
       <c r="K67" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L67" t="n">
         <v>101</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="O67" t="n">
         <v>218162</v>
@@ -4483,11 +4483,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2020-09-24</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4508,16 +4508,16 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5018</v>
+        <v>5073</v>
       </c>
       <c r="J68" t="n">
-        <v>2300.12559</v>
+        <v>2325.33622</v>
       </c>
       <c r="K68" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L68" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4544,11 +4544,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2020-09-23</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4991</v>
+        <v>5045</v>
       </c>
       <c r="J69" t="n">
-        <v>2287.74947</v>
+        <v>2312.50172</v>
       </c>
       <c r="K69" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L69" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -4605,11 +4605,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
+          <t>2020-09-24</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4630,22 +4630,22 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4961</v>
+        <v>5018</v>
       </c>
       <c r="J70" t="n">
-        <v>2273.99822</v>
+        <v>2300.12559</v>
       </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L70" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="O70" t="n">
         <v>218162</v>
@@ -4666,11 +4666,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2020-09-23</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4691,19 +4691,19 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4954</v>
+        <v>4991</v>
       </c>
       <c r="J71" t="n">
-        <v>2270.7896</v>
+        <v>2287.74947</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L71" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
         <v>0.02</v>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4752,13 +4752,13 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4954</v>
+        <v>4961</v>
       </c>
       <c r="J72" t="n">
-        <v>2270.7896</v>
+        <v>2273.99822</v>
       </c>
       <c r="K72" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L72" t="n">
         <v>99</v>
@@ -4784,15 +4784,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4813,13 +4813,13 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4940</v>
+        <v>4954</v>
       </c>
       <c r="J73" t="n">
-        <v>2264.37235</v>
+        <v>2270.7896</v>
       </c>
       <c r="K73" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>99</v>
@@ -4845,15 +4845,15 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4874,22 +4874,22 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4911</v>
+        <v>4954</v>
       </c>
       <c r="J74" t="n">
-        <v>2251.07947</v>
+        <v>2270.7896</v>
       </c>
       <c r="K74" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L74" t="n">
         <v>99</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="O74" t="n">
         <v>218162</v>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4935,22 +4935,22 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4886</v>
+        <v>4940</v>
       </c>
       <c r="J75" t="n">
-        <v>2239.6201</v>
+        <v>2264.37235</v>
       </c>
       <c r="K75" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L75" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="O75" t="n">
         <v>218162</v>
@@ -4971,11 +4971,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4996,22 +4996,22 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>4853</v>
+        <v>4911</v>
       </c>
       <c r="J76" t="n">
-        <v>2224.49372</v>
+        <v>2251.07947</v>
       </c>
       <c r="K76" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="L76" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
-        <v>0.02</v>
+        <v>0.0202</v>
       </c>
       <c r="O76" t="n">
         <v>218162</v>
@@ -5032,11 +5032,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5057,22 +5057,22 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4793</v>
+        <v>4886</v>
       </c>
       <c r="J77" t="n">
-        <v>2196.99123</v>
+        <v>2239.6201</v>
       </c>
       <c r="K77" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L77" t="n">
         <v>97</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0202</v>
+        <v>0.0199</v>
       </c>
       <c r="O77" t="n">
         <v>218162</v>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5118,22 +5118,22 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4783</v>
+        <v>4853</v>
       </c>
       <c r="J78" t="n">
-        <v>2192.40748</v>
+        <v>2224.49372</v>
       </c>
       <c r="K78" t="n">
-        <v>-4</v>
+        <v>60</v>
       </c>
       <c r="L78" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
       <c r="O78" t="n">
         <v>218162</v>
@@ -5154,11 +5154,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5179,22 +5179,22 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4787</v>
+        <v>4793</v>
       </c>
       <c r="J79" t="n">
-        <v>2194.24098</v>
+        <v>2196.99123</v>
       </c>
       <c r="K79" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O79" t="n">
         <v>218162</v>
@@ -5211,15 +5211,15 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2020-09-12</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5240,22 +5240,22 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4772</v>
+        <v>4783</v>
       </c>
       <c r="J80" t="n">
-        <v>2187.36535</v>
+        <v>2192.40748</v>
       </c>
       <c r="K80" t="n">
-        <v>56</v>
+        <v>-4</v>
       </c>
       <c r="L80" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0197</v>
+        <v>0.0201</v>
       </c>
       <c r="O80" t="n">
         <v>218162</v>
@@ -5272,15 +5272,15 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4716</v>
+        <v>4787</v>
       </c>
       <c r="J81" t="n">
-        <v>2161.69635</v>
+        <v>2194.24098</v>
       </c>
       <c r="K81" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L81" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0197</v>
+        <v>0.0201</v>
       </c>
       <c r="O81" t="n">
         <v>218162</v>
@@ -5337,11 +5337,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
+          <t>2020-09-12</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5362,22 +5362,22 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>4680</v>
+        <v>4772</v>
       </c>
       <c r="J82" t="n">
-        <v>2145.19486</v>
+        <v>2187.36535</v>
       </c>
       <c r="K82" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="L82" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0199</v>
+        <v>0.0197</v>
       </c>
       <c r="O82" t="n">
         <v>218162</v>
@@ -5398,11 +5398,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
+          <t>2020-09-11</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5423,13 +5423,13 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4654</v>
+        <v>4716</v>
       </c>
       <c r="J83" t="n">
-        <v>2133.27711</v>
+        <v>2161.69635</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L83" t="n">
         <v>93</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02</v>
+        <v>0.0197</v>
       </c>
       <c r="O83" t="n">
         <v>218162</v>
@@ -5459,11 +5459,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5484,13 +5484,13 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4654</v>
+        <v>4680</v>
       </c>
       <c r="J84" t="n">
-        <v>2133.27711</v>
+        <v>2145.19486</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L84" t="n">
         <v>93</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="O84" t="n">
         <v>218162</v>
@@ -5520,11 +5520,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5545,13 +5545,13 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="J85" t="n">
-        <v>2132.81873</v>
+        <v>2133.27711</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>93</v>
@@ -5581,11 +5581,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5606,13 +5606,13 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4652</v>
+        <v>4654</v>
       </c>
       <c r="J86" t="n">
-        <v>2132.36036</v>
+        <v>2133.27711</v>
       </c>
       <c r="K86" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>93</v>
@@ -5638,15 +5638,15 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4638</v>
+        <v>4653</v>
       </c>
       <c r="J87" t="n">
-        <v>2125.94311</v>
+        <v>2132.81873</v>
       </c>
       <c r="K87" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>93</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
       <c r="O87" t="n">
         <v>218162</v>
@@ -5699,15 +5699,15 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>4608</v>
+        <v>4652</v>
       </c>
       <c r="J88" t="n">
-        <v>2112.19186</v>
+        <v>2132.36036</v>
       </c>
       <c r="K88" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L88" t="n">
         <v>93</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="O88" t="n">
         <v>218162</v>
@@ -5764,11 +5764,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5789,19 +5789,19 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>4573</v>
+        <v>4638</v>
       </c>
       <c r="J89" t="n">
-        <v>2096.14873</v>
+        <v>2125.94311</v>
       </c>
       <c r="K89" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="L89" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0.0201</v>
@@ -5825,11 +5825,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5850,22 +5850,22 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>4520</v>
+        <v>4608</v>
       </c>
       <c r="J90" t="n">
-        <v>2071.85486</v>
+        <v>2112.19186</v>
       </c>
       <c r="K90" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="L90" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O90" t="n">
         <v>218162</v>
@@ -5886,11 +5886,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5911,22 +5911,22 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>4435</v>
+        <v>4573</v>
       </c>
       <c r="J91" t="n">
-        <v>2032.89299</v>
+        <v>2096.14873</v>
       </c>
       <c r="K91" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L91" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
       <c r="O91" t="n">
         <v>218162</v>
@@ -5947,11 +5947,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5972,22 +5972,22 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4401</v>
+        <v>4520</v>
       </c>
       <c r="J92" t="n">
-        <v>2017.30824</v>
+        <v>2071.85486</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="L92" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02</v>
+        <v>0.0201</v>
       </c>
       <c r="O92" t="n">
         <v>218162</v>
@@ -6008,11 +6008,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -6033,22 +6033,22 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>4400</v>
+        <v>4435</v>
       </c>
       <c r="J93" t="n">
-        <v>2016.84986</v>
+        <v>2032.89299</v>
       </c>
       <c r="K93" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L93" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0186</v>
+        <v>0.0205</v>
       </c>
       <c r="O93" t="n">
         <v>218162</v>
@@ -6065,15 +6065,15 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6094,22 +6094,22 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>4391</v>
+        <v>4401</v>
       </c>
       <c r="J94" t="n">
-        <v>2012.72449</v>
+        <v>2017.30824</v>
       </c>
       <c r="K94" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0184</v>
+        <v>0.02</v>
       </c>
       <c r="O94" t="n">
         <v>218162</v>
@@ -6126,15 +6126,15 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -6155,22 +6155,22 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>4309</v>
+        <v>4400</v>
       </c>
       <c r="J95" t="n">
-        <v>1975.13774</v>
+        <v>2016.84986</v>
       </c>
       <c r="K95" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="L95" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0188</v>
+        <v>0.0186</v>
       </c>
       <c r="O95" t="n">
         <v>218162</v>
@@ -6191,11 +6191,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6216,22 +6216,22 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>4273</v>
+        <v>4391</v>
       </c>
       <c r="J96" t="n">
-        <v>1958.63624</v>
+        <v>2012.72449</v>
       </c>
       <c r="K96" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="L96" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0187</v>
+        <v>0.0184</v>
       </c>
       <c r="O96" t="n">
         <v>218162</v>
@@ -6252,11 +6252,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6277,22 +6277,22 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>4234</v>
+        <v>4309</v>
       </c>
       <c r="J97" t="n">
-        <v>1940.75962</v>
+        <v>1975.13774</v>
       </c>
       <c r="K97" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L97" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0182</v>
+        <v>0.0188</v>
       </c>
       <c r="O97" t="n">
         <v>218162</v>
@@ -6313,11 +6313,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6338,22 +6338,22 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>4168</v>
+        <v>4273</v>
       </c>
       <c r="J98" t="n">
-        <v>1910.50687</v>
+        <v>1958.63624</v>
       </c>
       <c r="K98" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L98" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0182</v>
+        <v>0.0187</v>
       </c>
       <c r="O98" t="n">
         <v>218162</v>
@@ -6374,11 +6374,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6399,22 +6399,22 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>4115</v>
+        <v>4234</v>
       </c>
       <c r="J99" t="n">
-        <v>1886.213</v>
+        <v>1940.75962</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="L99" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0185</v>
+        <v>0.0182</v>
       </c>
       <c r="O99" t="n">
         <v>218162</v>
@@ -6435,11 +6435,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6460,16 +6460,16 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4114</v>
+        <v>4168</v>
       </c>
       <c r="J100" t="n">
-        <v>1885.75462</v>
+        <v>1910.50687</v>
       </c>
       <c r="K100" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="L100" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -6492,15 +6492,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2020-08-22</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6521,22 +6521,22 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>4110</v>
+        <v>4115</v>
       </c>
       <c r="J101" t="n">
-        <v>1883.92112</v>
+        <v>1886.213</v>
       </c>
       <c r="K101" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0182</v>
+        <v>0.0185</v>
       </c>
       <c r="O101" t="n">
         <v>218162</v>
@@ -6553,15 +6553,15 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6582,22 +6582,22 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4065</v>
+        <v>4114</v>
       </c>
       <c r="J102" t="n">
-        <v>1863.29425</v>
+        <v>1885.75462</v>
       </c>
       <c r="K102" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="L102" t="n">
         <v>75</v>
       </c>
       <c r="M102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0185</v>
+        <v>0.0182</v>
       </c>
       <c r="O102" t="n">
         <v>218162</v>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-08-22</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6643,19 +6643,19 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>4022</v>
+        <v>4110</v>
       </c>
       <c r="J103" t="n">
-        <v>1843.58413</v>
+        <v>1883.92112</v>
       </c>
       <c r="K103" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L103" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0.0182</v>
@@ -6679,11 +6679,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6704,22 +6704,22 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3961</v>
+        <v>4065</v>
       </c>
       <c r="J104" t="n">
-        <v>1815.62325</v>
+        <v>1863.29425</v>
       </c>
       <c r="K104" t="n">
+        <v>43</v>
+      </c>
+      <c r="L104" t="n">
         <v>75</v>
       </c>
-      <c r="L104" t="n">
-        <v>72</v>
-      </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0182</v>
+        <v>0.0185</v>
       </c>
       <c r="O104" t="n">
         <v>218162</v>
@@ -6740,11 +6740,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6765,22 +6765,22 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3886</v>
+        <v>4022</v>
       </c>
       <c r="J105" t="n">
-        <v>1781.24513</v>
+        <v>1843.58413</v>
       </c>
       <c r="K105" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L105" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M105" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0185</v>
+        <v>0.0182</v>
       </c>
       <c r="O105" t="n">
         <v>218162</v>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6826,22 +6826,22 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3832</v>
+        <v>3961</v>
       </c>
       <c r="J106" t="n">
-        <v>1756.49288</v>
+        <v>1815.62325</v>
       </c>
       <c r="K106" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="L106" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0175</v>
+        <v>0.0182</v>
       </c>
       <c r="O106" t="n">
         <v>218162</v>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6887,22 +6887,22 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3830</v>
+        <v>3886</v>
       </c>
       <c r="J107" t="n">
-        <v>1755.57613</v>
+        <v>1781.24513</v>
       </c>
       <c r="K107" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L107" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0175</v>
+        <v>0.0185</v>
       </c>
       <c r="O107" t="n">
         <v>218162</v>
@@ -6919,15 +6919,15 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6948,22 +6948,22 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3803</v>
+        <v>3832</v>
       </c>
       <c r="J108" t="n">
-        <v>1743.20001</v>
+        <v>1756.49288</v>
       </c>
       <c r="K108" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0174</v>
+        <v>0.0175</v>
       </c>
       <c r="O108" t="n">
         <v>218162</v>
@@ -6980,15 +6980,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -7009,22 +7009,22 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>3724</v>
+        <v>3830</v>
       </c>
       <c r="J109" t="n">
-        <v>1706.98838</v>
+        <v>1755.57613</v>
       </c>
       <c r="K109" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="L109" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0177</v>
+        <v>0.0175</v>
       </c>
       <c r="O109" t="n">
         <v>218162</v>
@@ -7045,11 +7045,11 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -7070,22 +7070,22 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>3659</v>
+        <v>3803</v>
       </c>
       <c r="J110" t="n">
-        <v>1677.19401</v>
+        <v>1743.20001</v>
       </c>
       <c r="K110" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L110" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0175</v>
+        <v>0.0174</v>
       </c>
       <c r="O110" t="n">
         <v>218162</v>
@@ -7106,11 +7106,11 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -7131,22 +7131,22 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>3585</v>
+        <v>3724</v>
       </c>
       <c r="J111" t="n">
-        <v>1643.27426</v>
+        <v>1706.98838</v>
       </c>
       <c r="K111" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="L111" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0176</v>
+        <v>0.0177</v>
       </c>
       <c r="O111" t="n">
         <v>218162</v>
@@ -7167,11 +7167,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -7192,22 +7192,22 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3480</v>
+        <v>3659</v>
       </c>
       <c r="J112" t="n">
-        <v>1595.14489</v>
+        <v>1677.19401</v>
       </c>
       <c r="K112" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="L112" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0178</v>
+        <v>0.0175</v>
       </c>
       <c r="O112" t="n">
         <v>218162</v>
@@ -7228,11 +7228,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7253,22 +7253,22 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3435</v>
+        <v>3585</v>
       </c>
       <c r="J113" t="n">
-        <v>1574.51802</v>
+        <v>1643.27426</v>
       </c>
       <c r="K113" t="n">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="L113" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>0.018</v>
+        <v>0.0176</v>
       </c>
       <c r="O113" t="n">
         <v>218162</v>
@@ -7289,11 +7289,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3432</v>
+        <v>3480</v>
       </c>
       <c r="J114" t="n">
-        <v>1573.14289</v>
+        <v>1595.14489</v>
       </c>
       <c r="K114" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L114" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0175</v>
+        <v>0.0178</v>
       </c>
       <c r="O114" t="n">
         <v>218162</v>
@@ -7346,15 +7346,15 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7375,22 +7375,22 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3400</v>
+        <v>3435</v>
       </c>
       <c r="J115" t="n">
-        <v>1558.47489</v>
+        <v>1574.51802</v>
       </c>
       <c r="K115" t="n">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="L115" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0176</v>
+        <v>0.018</v>
       </c>
       <c r="O115" t="n">
         <v>218162</v>
@@ -7407,51 +7407,51 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>33</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>140</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>3432</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1573.14289</v>
+      </c>
+      <c r="K116" t="n">
         <v>32</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2020-08-07</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>138</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Juazeiro</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>2918407</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>3265</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1496.59427</v>
-      </c>
-      <c r="K116" t="n">
-        <v>103</v>
-      </c>
       <c r="L116" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0181</v>
+        <v>0.0175</v>
       </c>
       <c r="O116" t="n">
         <v>218162</v>
@@ -7472,11 +7472,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7497,22 +7497,22 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3162</v>
+        <v>3400</v>
       </c>
       <c r="J117" t="n">
-        <v>1449.38165</v>
+        <v>1558.47489</v>
       </c>
       <c r="K117" t="n">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="L117" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0187</v>
+        <v>0.0176</v>
       </c>
       <c r="O117" t="n">
         <v>218162</v>
@@ -7533,11 +7533,11 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7558,13 +7558,13 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3085</v>
+        <v>3265</v>
       </c>
       <c r="J118" t="n">
-        <v>1414.08678</v>
+        <v>1496.59427</v>
       </c>
       <c r="K118" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L118" t="n">
         <v>59</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0191</v>
+        <v>0.0181</v>
       </c>
       <c r="O118" t="n">
         <v>218162</v>
@@ -7594,11 +7594,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7619,22 +7619,22 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2974</v>
+        <v>3162</v>
       </c>
       <c r="J119" t="n">
-        <v>1363.20716</v>
+        <v>1449.38165</v>
       </c>
       <c r="K119" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L119" t="n">
         <v>59</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0198</v>
+        <v>0.0187</v>
       </c>
       <c r="O119" t="n">
         <v>218162</v>
@@ -7655,11 +7655,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7680,22 +7680,22 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2910</v>
+        <v>3085</v>
       </c>
       <c r="J120" t="n">
-        <v>1333.87116</v>
+        <v>1414.08678</v>
       </c>
       <c r="K120" t="n">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="L120" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0199</v>
+        <v>0.0191</v>
       </c>
       <c r="O120" t="n">
         <v>218162</v>
@@ -7716,11 +7716,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2020-08-02</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7741,22 +7741,22 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2905</v>
+        <v>2974</v>
       </c>
       <c r="J121" t="n">
-        <v>1331.57929</v>
+        <v>1363.20716</v>
       </c>
       <c r="K121" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="L121" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02</v>
+        <v>0.0198</v>
       </c>
       <c r="O121" t="n">
         <v>218162</v>
@@ -7773,15 +7773,15 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7802,19 +7802,19 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2866</v>
+        <v>2910</v>
       </c>
       <c r="J122" t="n">
-        <v>1313.70266</v>
+        <v>1333.87116</v>
       </c>
       <c r="K122" t="n">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="L122" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>0.0199</v>
@@ -7834,15 +7834,15 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-08-02</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7863,22 +7863,22 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2758</v>
+        <v>2905</v>
       </c>
       <c r="J123" t="n">
-        <v>1264.19816</v>
+        <v>1331.57929</v>
       </c>
       <c r="K123" t="n">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="L123" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0196</v>
+        <v>0.02</v>
       </c>
       <c r="O123" t="n">
         <v>218162</v>
@@ -7899,11 +7899,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7924,22 +7924,22 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2592</v>
+        <v>2866</v>
       </c>
       <c r="J124" t="n">
-        <v>1188.10792</v>
+        <v>1313.70266</v>
       </c>
       <c r="K124" t="n">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="L124" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0201</v>
+        <v>0.0199</v>
       </c>
       <c r="O124" t="n">
         <v>218162</v>
@@ -7960,11 +7960,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7985,22 +7985,22 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2455</v>
+        <v>2758</v>
       </c>
       <c r="J125" t="n">
-        <v>1125.31055</v>
+        <v>1264.19816</v>
       </c>
       <c r="K125" t="n">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="L125" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0208</v>
+        <v>0.0196</v>
       </c>
       <c r="O125" t="n">
         <v>218162</v>
@@ -8021,11 +8021,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -8046,22 +8046,22 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2356</v>
+        <v>2592</v>
       </c>
       <c r="J126" t="n">
-        <v>1079.93143</v>
+        <v>1188.10792</v>
       </c>
       <c r="K126" t="n">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="L126" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0216</v>
+        <v>0.0201</v>
       </c>
       <c r="O126" t="n">
         <v>218162</v>
@@ -8082,11 +8082,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -8107,22 +8107,22 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2299</v>
+        <v>2455</v>
       </c>
       <c r="J127" t="n">
-        <v>1053.80405</v>
+        <v>1125.31055</v>
       </c>
       <c r="K127" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="L127" t="n">
         <v>51</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0222</v>
+        <v>0.0208</v>
       </c>
       <c r="O127" t="n">
         <v>218162</v>
@@ -8143,11 +8143,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -8168,22 +8168,22 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2297</v>
+        <v>2356</v>
       </c>
       <c r="J128" t="n">
-        <v>1052.8873</v>
+        <v>1079.93143</v>
       </c>
       <c r="K128" t="n">
+        <v>57</v>
+      </c>
+      <c r="L128" t="n">
         <v>51</v>
       </c>
-      <c r="L128" t="n">
-        <v>50</v>
-      </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0218</v>
+        <v>0.0216</v>
       </c>
       <c r="O128" t="n">
         <v>218162</v>
@@ -8200,15 +8200,15 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2020-07-25</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2246</v>
+        <v>2299</v>
       </c>
       <c r="J129" t="n">
-        <v>1029.51018</v>
+        <v>1053.80405</v>
       </c>
       <c r="K129" t="n">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0223</v>
+        <v>0.0222</v>
       </c>
       <c r="O129" t="n">
         <v>218162</v>
@@ -8261,15 +8261,15 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2020-07-24</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8290,22 +8290,22 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2076</v>
+        <v>2297</v>
       </c>
       <c r="J130" t="n">
-        <v>951.58644</v>
+        <v>1052.8873</v>
       </c>
       <c r="K130" t="n">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="L130" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0231</v>
+        <v>0.0218</v>
       </c>
       <c r="O130" t="n">
         <v>218162</v>
@@ -8326,11 +8326,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2020-07-25</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8351,22 +8351,22 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1948</v>
+        <v>2246</v>
       </c>
       <c r="J131" t="n">
-        <v>892.91444</v>
+        <v>1029.51018</v>
       </c>
       <c r="K131" t="n">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="L131" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0241</v>
+        <v>0.0223</v>
       </c>
       <c r="O131" t="n">
         <v>218162</v>
@@ -8387,11 +8387,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-07-24</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8412,22 +8412,22 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>1797</v>
+        <v>2076</v>
       </c>
       <c r="J132" t="n">
-        <v>823.69982</v>
+        <v>951.58644</v>
       </c>
       <c r="K132" t="n">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="L132" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0262</v>
+        <v>0.0231</v>
       </c>
       <c r="O132" t="n">
         <v>218162</v>
@@ -8448,11 +8448,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8473,22 +8473,22 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1696</v>
+        <v>1948</v>
       </c>
       <c r="J133" t="n">
-        <v>777.40395</v>
+        <v>892.91444</v>
       </c>
       <c r="K133" t="n">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="L133" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0265</v>
+        <v>0.0241</v>
       </c>
       <c r="O133" t="n">
         <v>218162</v>
@@ -8509,11 +8509,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8534,22 +8534,22 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1663</v>
+        <v>1797</v>
       </c>
       <c r="J134" t="n">
-        <v>762.27757</v>
+        <v>823.69982</v>
       </c>
       <c r="K134" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="L134" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M134" t="n">
         <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0265</v>
+        <v>0.0262</v>
       </c>
       <c r="O134" t="n">
         <v>218162</v>
@@ -8570,11 +8570,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8595,22 +8595,22 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1658</v>
+        <v>1696</v>
       </c>
       <c r="J135" t="n">
-        <v>759.9857</v>
+        <v>777.40395</v>
       </c>
       <c r="K135" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L135" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0253</v>
+        <v>0.0265</v>
       </c>
       <c r="O135" t="n">
         <v>218162</v>
@@ -8627,15 +8627,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8656,22 +8656,22 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1594</v>
+        <v>1663</v>
       </c>
       <c r="J136" t="n">
-        <v>730.6497000000001</v>
+        <v>762.27757</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L136" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0263</v>
+        <v>0.0265</v>
       </c>
       <c r="O136" t="n">
         <v>218162</v>
@@ -8688,15 +8688,15 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8717,22 +8717,22 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1593</v>
+        <v>1658</v>
       </c>
       <c r="J137" t="n">
-        <v>730.19133</v>
+        <v>759.9857</v>
       </c>
       <c r="K137" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L137" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0257</v>
+        <v>0.0253</v>
       </c>
       <c r="O137" t="n">
         <v>218162</v>
@@ -8753,11 +8753,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2020-07-18</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8778,22 +8778,22 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1560</v>
+        <v>1594</v>
       </c>
       <c r="J138" t="n">
-        <v>715.06495</v>
+        <v>730.6497000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0256</v>
+        <v>0.0263</v>
       </c>
       <c r="O138" t="n">
         <v>218162</v>
@@ -8814,11 +8814,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8839,22 +8839,22 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1523</v>
+        <v>1593</v>
       </c>
       <c r="J139" t="n">
-        <v>698.1050799999999</v>
+        <v>730.19133</v>
       </c>
       <c r="K139" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L139" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0256</v>
+        <v>0.0257</v>
       </c>
       <c r="O139" t="n">
         <v>218162</v>
@@ -8875,11 +8875,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8900,22 +8900,22 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="J140" t="n">
-        <v>678.39495</v>
+        <v>715.06495</v>
       </c>
       <c r="K140" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L140" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0236</v>
+        <v>0.0256</v>
       </c>
       <c r="O140" t="n">
         <v>218162</v>
@@ -8936,11 +8936,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8961,22 +8961,22 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1431</v>
+        <v>1523</v>
       </c>
       <c r="J141" t="n">
-        <v>655.93458</v>
+        <v>698.1050799999999</v>
       </c>
       <c r="K141" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L141" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0231</v>
+        <v>0.0256</v>
       </c>
       <c r="O141" t="n">
         <v>218162</v>
@@ -8997,11 +8997,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2020-07-12</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -9022,22 +9022,22 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1425</v>
+        <v>1480</v>
       </c>
       <c r="J142" t="n">
-        <v>653.1843299999999</v>
+        <v>678.39495</v>
       </c>
       <c r="K142" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L142" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0232</v>
+        <v>0.0236</v>
       </c>
       <c r="O142" t="n">
         <v>218162</v>
@@ -9054,15 +9054,15 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2020-07-11</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -9083,13 +9083,13 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1361</v>
+        <v>1431</v>
       </c>
       <c r="J143" t="n">
-        <v>623.84833</v>
+        <v>655.93458</v>
       </c>
       <c r="K143" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="L143" t="n">
         <v>33</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0242</v>
+        <v>0.0231</v>
       </c>
       <c r="O143" t="n">
         <v>218162</v>
@@ -9115,15 +9115,15 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-12</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -9144,22 +9144,22 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1272</v>
+        <v>1425</v>
       </c>
       <c r="J144" t="n">
-        <v>583.05296</v>
+        <v>653.1843299999999</v>
       </c>
       <c r="K144" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L144" t="n">
         <v>33</v>
       </c>
       <c r="M144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0259</v>
+        <v>0.0232</v>
       </c>
       <c r="O144" t="n">
         <v>218162</v>
@@ -9180,11 +9180,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-07-11</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -9205,22 +9205,22 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1195</v>
+        <v>1361</v>
       </c>
       <c r="J145" t="n">
-        <v>547.75809</v>
+        <v>623.84833</v>
       </c>
       <c r="K145" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L145" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0259</v>
+        <v>0.0242</v>
       </c>
       <c r="O145" t="n">
         <v>218162</v>
@@ -9241,11 +9241,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -9266,22 +9266,22 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1098</v>
+        <v>1272</v>
       </c>
       <c r="J146" t="n">
-        <v>503.29572</v>
+        <v>583.05296</v>
       </c>
       <c r="K146" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="L146" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0264</v>
+        <v>0.0259</v>
       </c>
       <c r="O146" t="n">
         <v>218162</v>
@@ -9302,11 +9302,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9327,22 +9327,22 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1049</v>
+        <v>1195</v>
       </c>
       <c r="J147" t="n">
-        <v>480.83534</v>
+        <v>547.75809</v>
       </c>
       <c r="K147" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="L147" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M147" t="n">
         <v>2</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0248</v>
+        <v>0.0259</v>
       </c>
       <c r="O147" t="n">
         <v>218162</v>
@@ -9363,11 +9363,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9388,22 +9388,22 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1024</v>
+        <v>1098</v>
       </c>
       <c r="J148" t="n">
-        <v>469.37597</v>
+        <v>503.29572</v>
       </c>
       <c r="K148" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="L148" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0234</v>
+        <v>0.0264</v>
       </c>
       <c r="O148" t="n">
         <v>218162</v>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9449,22 +9449,22 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="J149" t="n">
-        <v>465.70897</v>
+        <v>480.83534</v>
       </c>
       <c r="K149" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="L149" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0236</v>
+        <v>0.0248</v>
       </c>
       <c r="O149" t="n">
         <v>218162</v>
@@ -9481,15 +9481,15 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -9510,13 +9510,13 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>954</v>
+        <v>1024</v>
       </c>
       <c r="J150" t="n">
-        <v>437.28972</v>
+        <v>469.37597</v>
       </c>
       <c r="K150" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="L150" t="n">
         <v>24</v>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0252</v>
+        <v>0.0234</v>
       </c>
       <c r="O150" t="n">
         <v>218162</v>
@@ -9542,15 +9542,15 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9571,22 +9571,22 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>866</v>
+        <v>1016</v>
       </c>
       <c r="J151" t="n">
-        <v>396.95272</v>
+        <v>465.70897</v>
       </c>
       <c r="K151" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L151" t="n">
         <v>24</v>
       </c>
       <c r="M151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0277</v>
+        <v>0.0236</v>
       </c>
       <c r="O151" t="n">
         <v>218162</v>
@@ -9607,11 +9607,11 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>2020-07-04</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -9632,22 +9632,22 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>785</v>
+        <v>954</v>
       </c>
       <c r="J152" t="n">
-        <v>359.82435</v>
+        <v>437.28972</v>
       </c>
       <c r="K152" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L152" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0293</v>
+        <v>0.0252</v>
       </c>
       <c r="O152" t="n">
         <v>218162</v>
@@ -9668,11 +9668,11 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>721</v>
+        <v>866</v>
       </c>
       <c r="J153" t="n">
-        <v>330.48835</v>
+        <v>396.95272</v>
       </c>
       <c r="K153" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="L153" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0291</v>
+        <v>0.0277</v>
       </c>
       <c r="O153" t="n">
         <v>218162</v>
@@ -9729,11 +9729,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9754,22 +9754,22 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>621</v>
+        <v>785</v>
       </c>
       <c r="J154" t="n">
-        <v>284.65086</v>
+        <v>359.82435</v>
       </c>
       <c r="K154" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L154" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0306</v>
+        <v>0.0293</v>
       </c>
       <c r="O154" t="n">
         <v>218162</v>
@@ -9790,11 +9790,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -9815,22 +9815,22 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>590</v>
+        <v>721</v>
       </c>
       <c r="J155" t="n">
-        <v>270.44123</v>
+        <v>330.48835</v>
       </c>
       <c r="K155" t="n">
+        <v>100</v>
+      </c>
+      <c r="L155" t="n">
         <v>21</v>
       </c>
-      <c r="L155" t="n">
-        <v>19</v>
-      </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0322</v>
+        <v>0.0291</v>
       </c>
       <c r="O155" t="n">
         <v>218162</v>
@@ -9851,11 +9851,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -9876,22 +9876,22 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="J156" t="n">
-        <v>260.81536</v>
+        <v>284.65086</v>
       </c>
       <c r="K156" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L156" t="n">
         <v>19</v>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0334</v>
+        <v>0.0306</v>
       </c>
       <c r="O156" t="n">
         <v>218162</v>
@@ -9908,15 +9908,15 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2020-06-27</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -9937,22 +9937,22 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="J157" t="n">
-        <v>255.31486</v>
+        <v>270.44123</v>
       </c>
       <c r="K157" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="L157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0323</v>
+        <v>0.0322</v>
       </c>
       <c r="O157" t="n">
         <v>218162</v>
@@ -9969,15 +9969,15 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2020-06-26</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -9998,22 +9998,22 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="J158" t="n">
-        <v>220.47836</v>
+        <v>260.81536</v>
       </c>
       <c r="K158" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="L158" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0312</v>
+        <v>0.0334</v>
       </c>
       <c r="O158" t="n">
         <v>218162</v>
@@ -10034,11 +10034,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-06-27</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -10059,22 +10059,22 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="J159" t="n">
-        <v>198.93474</v>
+        <v>255.31486</v>
       </c>
       <c r="K159" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="L159" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0346</v>
+        <v>0.0323</v>
       </c>
       <c r="O159" t="n">
         <v>218162</v>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2020-06-24</t>
+          <t>2020-06-26</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -10120,22 +10120,22 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="J160" t="n">
-        <v>181.97486</v>
+        <v>220.47836</v>
       </c>
       <c r="K160" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L160" t="n">
         <v>15</v>
       </c>
       <c r="M160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0378</v>
+        <v>0.0312</v>
       </c>
       <c r="O160" t="n">
         <v>218162</v>
@@ -10156,11 +10156,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -10181,22 +10181,22 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>339</v>
+        <v>434</v>
       </c>
       <c r="J161" t="n">
-        <v>155.38911</v>
+        <v>198.93474</v>
       </c>
       <c r="K161" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L161" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M161" t="n">
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0354</v>
+        <v>0.0346</v>
       </c>
       <c r="O161" t="n">
         <v>218162</v>
@@ -10217,11 +10217,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2020-06-24</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -10242,22 +10242,22 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="J162" t="n">
-        <v>145.76324</v>
+        <v>181.97486</v>
       </c>
       <c r="K162" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="L162" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0377</v>
+        <v>0.0378</v>
       </c>
       <c r="O162" t="n">
         <v>218162</v>
@@ -10278,11 +10278,11 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2020-06-21</t>
+          <t>2020-06-23</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -10303,22 +10303,22 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="J163" t="n">
-        <v>145.30487</v>
+        <v>155.38911</v>
       </c>
       <c r="K163" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L163" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0315</v>
+        <v>0.0354</v>
       </c>
       <c r="O163" t="n">
         <v>218162</v>
@@ -10335,15 +10335,15 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2020-06-20</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -10364,22 +10364,22 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="J164" t="n">
-        <v>123.30287</v>
+        <v>145.76324</v>
       </c>
       <c r="K164" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="L164" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0335</v>
+        <v>0.0377</v>
       </c>
       <c r="O164" t="n">
         <v>218162</v>
@@ -10396,15 +10396,15 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2020-06-19</t>
+          <t>2020-06-21</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -10425,22 +10425,22 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="J165" t="n">
-        <v>93.50849000000001</v>
+        <v>145.30487</v>
       </c>
       <c r="K165" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="L165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0441</v>
+        <v>0.0315</v>
       </c>
       <c r="O165" t="n">
         <v>218162</v>
@@ -10461,11 +10461,11 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2020-06-18</t>
+          <t>2020-06-20</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -10486,22 +10486,22 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="J166" t="n">
-        <v>92.13337</v>
+        <v>123.30287</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L166" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M166" t="n">
         <v>0</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0398</v>
+        <v>0.0335</v>
       </c>
       <c r="O166" t="n">
         <v>218162</v>
@@ -10522,11 +10522,11 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
+          <t>2020-06-19</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -10547,22 +10547,22 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J167" t="n">
-        <v>92.13337</v>
+        <v>93.50849000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L167" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0398</v>
+        <v>0.0441</v>
       </c>
       <c r="O167" t="n">
         <v>218162</v>
@@ -10583,11 +10583,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2020-06-16</t>
+          <t>2020-06-18</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -10608,13 +10608,13 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="J168" t="n">
-        <v>82.96587</v>
+        <v>92.13337</v>
       </c>
       <c r="K168" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>8</v>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0442</v>
+        <v>0.0398</v>
       </c>
       <c r="O168" t="n">
         <v>218162</v>
@@ -10644,11 +10644,11 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2020-06-15</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -10669,22 +10669,22 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="J169" t="n">
-        <v>79.29886999999999</v>
+        <v>92.13337</v>
       </c>
       <c r="K169" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>8</v>
       </c>
       <c r="M169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0462</v>
+        <v>0.0398</v>
       </c>
       <c r="O169" t="n">
         <v>218162</v>
@@ -10705,11 +10705,11 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2020-06-14</t>
+          <t>2020-06-16</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -10730,22 +10730,22 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J170" t="n">
-        <v>77.46536999999999</v>
+        <v>82.96587</v>
       </c>
       <c r="K170" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0414</v>
+        <v>0.0442</v>
       </c>
       <c r="O170" t="n">
         <v>218162</v>
@@ -10762,15 +10762,15 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2020-06-13</t>
+          <t>2020-06-15</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -10791,22 +10791,22 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J171" t="n">
-        <v>77.00699</v>
+        <v>79.29886999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L171" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0357</v>
+        <v>0.0462</v>
       </c>
       <c r="O171" t="n">
         <v>218162</v>
@@ -10823,15 +10823,15 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-06-14</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -10852,22 +10852,22 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J172" t="n">
-        <v>77.00699</v>
+        <v>77.46536999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0357</v>
+        <v>0.0414</v>
       </c>
       <c r="O172" t="n">
         <v>218162</v>
@@ -10888,11 +10888,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-13</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -10913,13 +10913,13 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J173" t="n">
-        <v>75.17349</v>
+        <v>77.00699</v>
       </c>
       <c r="K173" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>6</v>
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0366</v>
+        <v>0.0357</v>
       </c>
       <c r="O173" t="n">
         <v>218162</v>
@@ -10949,11 +10949,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2020-06-10</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -10974,13 +10974,13 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="J174" t="n">
-        <v>68.29786999999999</v>
+        <v>77.00699</v>
       </c>
       <c r="K174" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L174" t="n">
         <v>6</v>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0403</v>
+        <v>0.0357</v>
       </c>
       <c r="O174" t="n">
         <v>218162</v>
@@ -11010,11 +11010,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -11035,13 +11035,13 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="J175" t="n">
-        <v>60.5055</v>
+        <v>75.17349</v>
       </c>
       <c r="K175" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L175" t="n">
         <v>6</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0455</v>
+        <v>0.0366</v>
       </c>
       <c r="O175" t="n">
         <v>218162</v>
@@ -11071,11 +11071,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>2020-06-10</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -11096,13 +11096,13 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="J176" t="n">
-        <v>59.13036999999999</v>
+        <v>68.29786999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L176" t="n">
         <v>6</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0465</v>
+        <v>0.0403</v>
       </c>
       <c r="O176" t="n">
         <v>218162</v>
@@ -11132,11 +11132,11 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2020-06-07</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -11157,13 +11157,13 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J177" t="n">
-        <v>56.38012</v>
+        <v>60.5055</v>
       </c>
       <c r="K177" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L177" t="n">
         <v>6</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0488</v>
+        <v>0.0455</v>
       </c>
       <c r="O177" t="n">
         <v>218162</v>
@@ -11189,15 +11189,15 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -11218,13 +11218,13 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="J178" t="n">
-        <v>47.67100000000001</v>
+        <v>59.13036999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L178" t="n">
         <v>6</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0577</v>
+        <v>0.0465</v>
       </c>
       <c r="O178" t="n">
         <v>218162</v>
@@ -11250,15 +11250,15 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2020-06-07</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -11279,13 +11279,13 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="J179" t="n">
-        <v>42.62887</v>
+        <v>56.38012</v>
       </c>
       <c r="K179" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L179" t="n">
         <v>6</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0645</v>
+        <v>0.0488</v>
       </c>
       <c r="O179" t="n">
         <v>218162</v>
@@ -11315,11 +11315,11 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2020-06-04</t>
+          <t>2020-06-06</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -11340,22 +11340,22 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="J180" t="n">
-        <v>28.41925</v>
+        <v>47.67100000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L180" t="n">
         <v>6</v>
       </c>
       <c r="M180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0968</v>
+        <v>0.0577</v>
       </c>
       <c r="O180" t="n">
         <v>218162</v>
@@ -11376,11 +11376,11 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -11401,22 +11401,22 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="J181" t="n">
-        <v>27.5025</v>
+        <v>42.62887</v>
       </c>
       <c r="K181" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="L181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0833</v>
+        <v>0.0645</v>
       </c>
       <c r="O181" t="n">
         <v>218162</v>
@@ -11437,11 +11437,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>2020-06-04</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -11462,22 +11462,22 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J182" t="n">
-        <v>26.12737</v>
+        <v>28.41925</v>
       </c>
       <c r="K182" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L182" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0877</v>
+        <v>0.0968</v>
       </c>
       <c r="O182" t="n">
         <v>218162</v>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -11523,10 +11523,10 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J183" t="n">
-        <v>18.79337</v>
+        <v>27.5025</v>
       </c>
       <c r="K183" t="n">
         <v>3</v>
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>0.122</v>
+        <v>0.0833</v>
       </c>
       <c r="O183" t="n">
         <v>218162</v>
@@ -11559,11 +11559,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -11584,22 +11584,22 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J184" t="n">
-        <v>17.41825</v>
+        <v>26.12737</v>
       </c>
       <c r="K184" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L184" t="n">
         <v>5</v>
       </c>
       <c r="M184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1316</v>
+        <v>0.0877</v>
       </c>
       <c r="O184" t="n">
         <v>218162</v>
@@ -11616,15 +11616,15 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -11645,22 +11645,22 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J185" t="n">
-        <v>16.5015</v>
+        <v>18.79337</v>
       </c>
       <c r="K185" t="n">
         <v>3</v>
       </c>
       <c r="L185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M185" t="n">
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1111</v>
+        <v>0.122</v>
       </c>
       <c r="O185" t="n">
         <v>218162</v>
@@ -11677,15 +11677,15 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2020-05-29</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -11706,22 +11706,22 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J186" t="n">
-        <v>15.12637</v>
+        <v>17.41825</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1212</v>
+        <v>0.1316</v>
       </c>
       <c r="O186" t="n">
         <v>218162</v>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-30</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -11767,22 +11767,22 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J187" t="n">
-        <v>15.12637</v>
+        <v>16.5015</v>
       </c>
       <c r="K187" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1111</v>
       </c>
       <c r="O187" t="n">
         <v>218162</v>
@@ -11803,11 +11803,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-29</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -11828,22 +11828,22 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J188" t="n">
-        <v>16.5015</v>
+        <v>15.12637</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0833</v>
+        <v>0.1212</v>
       </c>
       <c r="O188" t="n">
         <v>218162</v>
@@ -11864,11 +11864,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -11889,13 +11889,13 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J189" t="n">
-        <v>16.5015</v>
+        <v>15.12637</v>
       </c>
       <c r="K189" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="L189" t="n">
         <v>3</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0833</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="O189" t="n">
         <v>218162</v>
@@ -11925,11 +11925,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -11950,13 +11950,13 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J190" t="n">
-        <v>16.04312</v>
+        <v>16.5015</v>
       </c>
       <c r="K190" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>3</v>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0857</v>
+        <v>0.0833</v>
       </c>
       <c r="O190" t="n">
         <v>218162</v>
@@ -11986,11 +11986,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2020-05-24</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -12043,15 +12043,15 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -12078,13 +12078,13 @@
         <v>16.04312</v>
       </c>
       <c r="K192" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="L192" t="n">
         <v>3</v>
       </c>
       <c r="M192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192" t="n">
         <v>0.0857</v>
@@ -12104,15 +12104,15 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -12133,22 +12133,22 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J193" t="n">
-        <v>14.20962</v>
+        <v>16.5015</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M193" t="n">
         <v>0</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0645</v>
+        <v>0.0833</v>
       </c>
       <c r="O193" t="n">
         <v>218162</v>
@@ -12169,11 +12169,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -12194,22 +12194,22 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J194" t="n">
-        <v>14.20962</v>
+        <v>16.04312</v>
       </c>
       <c r="K194" t="n">
         <v>4</v>
       </c>
       <c r="L194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0645</v>
+        <v>0.0857</v>
       </c>
       <c r="O194" t="n">
         <v>218162</v>
@@ -12230,11 +12230,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -12255,10 +12255,10 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J195" t="n">
-        <v>12.37612</v>
+        <v>14.20962</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0741</v>
+        <v>0.0645</v>
       </c>
       <c r="O195" t="n">
         <v>218162</v>
@@ -12291,11 +12291,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J196" t="n">
-        <v>12.37612</v>
+        <v>14.20962</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L196" t="n">
         <v>2</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0741</v>
+        <v>0.0645</v>
       </c>
       <c r="O196" t="n">
         <v>218162</v>
@@ -12352,11 +12352,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -12377,10 +12377,10 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J197" t="n">
-        <v>11.91775</v>
+        <v>12.37612</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0769</v>
+        <v>0.0741</v>
       </c>
       <c r="O197" t="n">
         <v>218162</v>
@@ -12413,11 +12413,11 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -12438,13 +12438,13 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J198" t="n">
-        <v>11.91775</v>
+        <v>12.37612</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198" t="n">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0769</v>
+        <v>0.0741</v>
       </c>
       <c r="O198" t="n">
         <v>218162</v>
@@ -12470,15 +12470,15 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -12531,15 +12531,15 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>11.91775</v>
       </c>
       <c r="K200" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>2</v>
@@ -12596,11 +12596,11 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -12621,10 +12621,10 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J201" t="n">
-        <v>5.5005</v>
+        <v>11.91775</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1667</v>
+        <v>0.0769</v>
       </c>
       <c r="O201" t="n">
         <v>218162</v>
@@ -12657,11 +12657,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -12682,13 +12682,13 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J202" t="n">
-        <v>5.5005</v>
+        <v>11.91775</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L202" t="n">
         <v>2</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1667</v>
+        <v>0.0769</v>
       </c>
       <c r="O202" t="n">
         <v>218162</v>
@@ -12718,11 +12718,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>5.5005</v>
       </c>
       <c r="K203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>2</v>
@@ -12779,11 +12779,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -12804,10 +12804,10 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J204" t="n">
-        <v>4.58375</v>
+        <v>5.5005</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -12816,10 +12816,10 @@
         <v>2</v>
       </c>
       <c r="M204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="O204" t="n">
         <v>218162</v>
@@ -12840,11 +12840,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -12865,22 +12865,22 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J205" t="n">
-        <v>4.58375</v>
+        <v>5.5005</v>
       </c>
       <c r="K205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M205" t="n">
         <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1</v>
+        <v>0.1667</v>
       </c>
       <c r="O205" t="n">
         <v>218162</v>
@@ -12897,15 +12897,15 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -12926,22 +12926,22 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J206" t="n">
-        <v>4.125369999999999</v>
+        <v>4.58375</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
       </c>
       <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
         <v>1</v>
       </c>
-      <c r="M206" t="n">
-        <v>0</v>
-      </c>
       <c r="N206" t="n">
-        <v>0.1111</v>
+        <v>0.2</v>
       </c>
       <c r="O206" t="n">
         <v>218162</v>
@@ -12958,15 +12958,15 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -12987,13 +12987,13 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J207" t="n">
-        <v>4.125369999999999</v>
+        <v>4.58375</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" t="n">
         <v>1</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="O207" t="n">
         <v>218162</v>
@@ -13023,11 +13023,11 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -13084,11 +13084,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -13145,11 +13145,11 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -13206,11 +13206,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -13267,11 +13267,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -13324,15 +13324,15 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -13385,15 +13385,15 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -13450,11 +13450,11 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -13511,11 +13511,11 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -13572,11 +13572,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -13633,11 +13633,11 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -13694,11 +13694,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         <v>4.125369999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>1</v>
@@ -13751,15 +13751,15 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -13780,13 +13780,13 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J220" t="n">
-        <v>3.667</v>
+        <v>4.125369999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>1</v>
@@ -13795,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="O220" t="n">
         <v>218162</v>
@@ -13812,15 +13812,15 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -13841,13 +13841,13 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J221" t="n">
-        <v>3.20862</v>
+        <v>4.125369999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221" t="n">
         <v>1</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1429</v>
+        <v>0.1111</v>
       </c>
       <c r="O221" t="n">
         <v>218162</v>
@@ -13877,11 +13877,11 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -13902,13 +13902,13 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J222" t="n">
-        <v>3.20862</v>
+        <v>3.667</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L222" t="n">
         <v>1</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="O222" t="n">
         <v>218162</v>
@@ -13938,11 +13938,11 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -13999,11 +13999,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -14060,11 +14060,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -14121,11 +14121,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>3.20862</v>
       </c>
       <c r="K226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>1</v>
@@ -14178,15 +14178,15 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -14207,10 +14207,10 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J227" t="n">
-        <v>2.29187</v>
+        <v>3.20862</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
@@ -14222,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>0.2</v>
+        <v>0.1429</v>
       </c>
       <c r="O227" t="n">
         <v>218162</v>
@@ -14239,15 +14239,15 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -14268,22 +14268,22 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J228" t="n">
-        <v>2.29187</v>
+        <v>3.20862</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
       <c r="M228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>0.2</v>
+        <v>0.1429</v>
       </c>
       <c r="O228" t="n">
         <v>218162</v>
@@ -14304,11 +14304,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -14338,13 +14338,13 @@
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M229" t="n">
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O229" t="n">
         <v>218162</v>
@@ -14365,11 +14365,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -14399,13 +14399,13 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N230" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O230" t="n">
         <v>218162</v>
@@ -14426,11 +14426,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -14548,11 +14548,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -14605,15 +14605,15 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>2.29187</v>
       </c>
       <c r="K234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>0</v>
@@ -14666,15 +14666,15 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -14695,10 +14695,10 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J235" t="n">
-        <v>1.37512</v>
+        <v>2.29187</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -14731,11 +14731,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -14756,13 +14756,13 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J236" t="n">
-        <v>1.37512</v>
+        <v>2.29187</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L236" t="n">
         <v>0</v>
@@ -14792,11 +14792,11 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14853,11 +14853,11 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -14914,11 +14914,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -14975,11 +14975,11 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>1.37512</v>
       </c>
       <c r="K240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>0</v>
@@ -15032,15 +15032,15 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -15061,10 +15061,10 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J241" t="n">
-        <v>0.91675</v>
+        <v>1.37512</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -15093,16 +15093,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
+        <v>15</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
         <v>14</v>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>2020-04-03</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>12</v>
-      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>BA</t>
@@ -15122,13 +15122,13 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J242" t="n">
-        <v>0.91675</v>
+        <v>1.37512</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L242" t="n">
         <v>0</v>
@@ -15158,11 +15158,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -15219,11 +15219,11 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -15280,11 +15280,11 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -15341,11 +15341,11 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -15402,11 +15402,11 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -15459,15 +15459,15 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -15520,15 +15520,15 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -15585,11 +15585,11 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -15646,11 +15646,11 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -15707,11 +15707,11 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -15738,7 +15738,7 @@
         <v>0.91675</v>
       </c>
       <c r="K252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>0</v>
@@ -15768,55 +15768,177 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>3</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>2</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.91675</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>218162</v>
+      </c>
+      <c r="P253" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>13</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.91675</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>218162</v>
+      </c>
+      <c r="P254" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
           <t>2020-03-23</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D255" t="n">
         <v>1</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Juazeiro</t>
-        </is>
-      </c>
-      <c r="G253" t="n">
-        <v>2918407</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="I253" t="n">
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
         <v>1</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J255" t="n">
         <v>0.45837</v>
       </c>
-      <c r="K253" t="n">
+      <c r="K255" t="n">
         <v>1</v>
       </c>
-      <c r="L253" t="n">
-        <v>0</v>
-      </c>
-      <c r="M253" t="n">
-        <v>0</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0</v>
-      </c>
-      <c r="O253" t="n">
-        <v>218162</v>
-      </c>
-      <c r="P253" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q253" t="b">
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>218162</v>
+      </c>
+      <c r="P255" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="b">
         <v>0</v>
       </c>
     </row>

--- a/jua.xlsx
+++ b/jua.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q255"/>
+  <dimension ref="A1:Q257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,11 +457,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2020-12-03</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>7062</v>
+        <v>7093</v>
       </c>
       <c r="J2" t="n">
-        <v>3237.04403</v>
+        <v>3251.25366</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>126</v>
@@ -503,10 +503,10 @@
         <v>218162</v>
       </c>
       <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
         <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,11 +518,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2020-12-02</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>7041</v>
+        <v>7093</v>
       </c>
       <c r="J3" t="n">
-        <v>3227.41816</v>
+        <v>3251.25366</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L3" t="n">
         <v>126</v>
@@ -558,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0179</v>
+        <v>0.0178</v>
       </c>
       <c r="O3" t="n">
         <v>218162</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -579,11 +579,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7029</v>
+        <v>7062</v>
       </c>
       <c r="J4" t="n">
-        <v>3221.91766</v>
+        <v>3237.04403</v>
       </c>
       <c r="K4" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
         <v>126</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0179</v>
+        <v>0.0178</v>
       </c>
       <c r="O4" t="n">
         <v>218162</v>
@@ -636,15 +636,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020-11-28</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6957</v>
+        <v>7041</v>
       </c>
       <c r="J5" t="n">
-        <v>3188.91466</v>
+        <v>3227.41816</v>
       </c>
       <c r="K5" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
         <v>126</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0181</v>
+        <v>0.0179</v>
       </c>
       <c r="O5" t="n">
         <v>218162</v>
@@ -697,15 +697,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2020-11-27</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6905</v>
+        <v>7029</v>
       </c>
       <c r="J6" t="n">
-        <v>3165.07916</v>
+        <v>3221.91766</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="L6" t="n">
         <v>126</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0182</v>
+        <v>0.0179</v>
       </c>
       <c r="O6" t="n">
         <v>218162</v>
@@ -762,11 +762,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2020-11-28</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6891</v>
+        <v>6957</v>
       </c>
       <c r="J7" t="n">
-        <v>3158.66191</v>
+        <v>3188.91466</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L7" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -823,11 +823,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2020-11-27</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -848,19 +848,19 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6851</v>
+        <v>6905</v>
       </c>
       <c r="J8" t="n">
-        <v>3140.32691</v>
+        <v>3165.07916</v>
       </c>
       <c r="K8" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0.0182</v>
@@ -884,11 +884,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
+          <t>2020-11-26</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6817</v>
+        <v>6891</v>
       </c>
       <c r="J9" t="n">
-        <v>3124.74216</v>
+        <v>3158.66191</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
         <v>125</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0183</v>
+        <v>0.0181</v>
       </c>
       <c r="O9" t="n">
         <v>218162</v>
@@ -945,11 +945,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2020-11-23</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6813</v>
+        <v>6851</v>
       </c>
       <c r="J10" t="n">
-        <v>3122.90866</v>
+        <v>3140.32691</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L10" t="n">
         <v>125</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0183</v>
+        <v>0.0182</v>
       </c>
       <c r="O10" t="n">
         <v>218162</v>
@@ -1006,11 +1006,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2020-11-22</t>
+          <t>2020-11-24</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6811</v>
+        <v>6817</v>
       </c>
       <c r="J11" t="n">
-        <v>3121.99191</v>
+        <v>3124.74216</v>
       </c>
       <c r="K11" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>125</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0184</v>
+        <v>0.0183</v>
       </c>
       <c r="O11" t="n">
         <v>218162</v>
@@ -1063,15 +1063,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>2020-11-23</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1092,16 +1092,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6786</v>
+        <v>6813</v>
       </c>
       <c r="J12" t="n">
-        <v>3110.53254</v>
+        <v>3122.90866</v>
       </c>
       <c r="K12" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1124,15 +1124,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>2020-11-22</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6764</v>
+        <v>6811</v>
       </c>
       <c r="J13" t="n">
-        <v>3100.44829</v>
+        <v>3121.99191</v>
       </c>
       <c r="K13" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L13" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0183</v>
+        <v>0.0184</v>
       </c>
       <c r="O13" t="n">
         <v>218162</v>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2020-11-19</t>
+          <t>2020-11-21</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6708</v>
+        <v>6786</v>
       </c>
       <c r="J14" t="n">
-        <v>3074.77929</v>
+        <v>3110.53254</v>
       </c>
       <c r="K14" t="n">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="L14" t="n">
         <v>124</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0185</v>
+        <v>0.0183</v>
       </c>
       <c r="O14" t="n">
         <v>218162</v>
@@ -1250,11 +1250,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2020-11-18</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>6612</v>
+        <v>6764</v>
       </c>
       <c r="J15" t="n">
-        <v>3030.7753</v>
+        <v>3100.44829</v>
       </c>
       <c r="K15" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="L15" t="n">
         <v>124</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0188</v>
+        <v>0.0183</v>
       </c>
       <c r="O15" t="n">
         <v>218162</v>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2020-11-19</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6588</v>
+        <v>6708</v>
       </c>
       <c r="J16" t="n">
-        <v>3019.7743</v>
+        <v>3074.77929</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="L16" t="n">
         <v>124</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0188</v>
+        <v>0.0185</v>
       </c>
       <c r="O16" t="n">
         <v>218162</v>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2020-11-16</t>
+          <t>2020-11-18</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1397,19 +1397,19 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6587</v>
+        <v>6612</v>
       </c>
       <c r="J17" t="n">
-        <v>3019.31592</v>
+        <v>3030.7753</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L17" t="n">
         <v>124</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0188</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6587</v>
+        <v>6588</v>
       </c>
       <c r="J18" t="n">
-        <v>3019.31592</v>
+        <v>3019.7743</v>
       </c>
       <c r="K18" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0187</v>
+        <v>0.0188</v>
       </c>
       <c r="O18" t="n">
         <v>218162</v>
@@ -1490,15 +1490,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2020-11-14</t>
+          <t>2020-11-16</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1519,22 +1519,22 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6551</v>
+        <v>6587</v>
       </c>
       <c r="J19" t="n">
-        <v>3002.81442</v>
+        <v>3019.31592</v>
       </c>
       <c r="K19" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0186</v>
+        <v>0.0188</v>
       </c>
       <c r="O19" t="n">
         <v>218162</v>
@@ -1551,15 +1551,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1580,22 +1580,22 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6482</v>
+        <v>6587</v>
       </c>
       <c r="J20" t="n">
-        <v>2971.18655</v>
+        <v>3019.31592</v>
       </c>
       <c r="K20" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="L20" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0188</v>
+        <v>0.0187</v>
       </c>
       <c r="O20" t="n">
         <v>218162</v>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2020-11-12</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6413</v>
+        <v>6551</v>
       </c>
       <c r="J21" t="n">
-        <v>2939.55868</v>
+        <v>3002.81442</v>
       </c>
       <c r="K21" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L21" t="n">
         <v>122</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.019</v>
+        <v>0.0186</v>
       </c>
       <c r="O21" t="n">
         <v>218162</v>
@@ -1677,11 +1677,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6326</v>
+        <v>6482</v>
       </c>
       <c r="J22" t="n">
-        <v>2899.68005</v>
+        <v>2971.18655</v>
       </c>
       <c r="K22" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L22" t="n">
         <v>122</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0193</v>
+        <v>0.0188</v>
       </c>
       <c r="O22" t="n">
         <v>218162</v>
@@ -1738,11 +1738,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2020-11-10</t>
+          <t>2020-11-12</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1763,13 +1763,13 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6252</v>
+        <v>6413</v>
       </c>
       <c r="J23" t="n">
-        <v>2865.76031</v>
+        <v>2939.55868</v>
       </c>
       <c r="K23" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="L23" t="n">
         <v>122</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0195</v>
+        <v>0.019</v>
       </c>
       <c r="O23" t="n">
         <v>218162</v>
@@ -1799,11 +1799,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-11-09</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1824,13 +1824,13 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6221</v>
+        <v>6326</v>
       </c>
       <c r="J24" t="n">
-        <v>2851.55068</v>
+        <v>2899.68005</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L24" t="n">
         <v>122</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0196</v>
+        <v>0.0193</v>
       </c>
       <c r="O24" t="n">
         <v>218162</v>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2020-11-08</t>
+          <t>2020-11-10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1885,22 +1885,22 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6221</v>
+        <v>6252</v>
       </c>
       <c r="J25" t="n">
-        <v>2851.55068</v>
+        <v>2865.76031</v>
       </c>
       <c r="K25" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L25" t="n">
         <v>122</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0196</v>
+        <v>0.0195</v>
       </c>
       <c r="O25" t="n">
         <v>218162</v>
@@ -1917,15 +1917,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2020-11-07</t>
+          <t>2020-11-09</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1946,16 +1946,16 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>6170</v>
+        <v>6221</v>
       </c>
       <c r="J26" t="n">
-        <v>2828.17356</v>
+        <v>2851.55068</v>
       </c>
       <c r="K26" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1978,15 +1978,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2020-11-08</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2007,22 +2007,22 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>6104</v>
+        <v>6221</v>
       </c>
       <c r="J27" t="n">
-        <v>2797.92081</v>
+        <v>2851.55068</v>
       </c>
       <c r="K27" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L27" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0198</v>
+        <v>0.0196</v>
       </c>
       <c r="O27" t="n">
         <v>218162</v>
@@ -2043,11 +2043,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2020-11-05</t>
+          <t>2020-11-07</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2068,22 +2068,22 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6040</v>
+        <v>6170</v>
       </c>
       <c r="J28" t="n">
-        <v>2768.58481</v>
+        <v>2828.17356</v>
       </c>
       <c r="K28" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="L28" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0199</v>
+        <v>0.0196</v>
       </c>
       <c r="O28" t="n">
         <v>218162</v>
@@ -2104,11 +2104,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2129,22 +2129,22 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6001</v>
+        <v>6104</v>
       </c>
       <c r="J29" t="n">
-        <v>2750.70819</v>
+        <v>2797.92081</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="L29" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0195</v>
+        <v>0.0198</v>
       </c>
       <c r="O29" t="n">
         <v>218162</v>
@@ -2165,11 +2165,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-11-05</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2190,22 +2190,22 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5999</v>
+        <v>6040</v>
       </c>
       <c r="J30" t="n">
-        <v>2749.79144</v>
+        <v>2768.58481</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="L30" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0195</v>
+        <v>0.0199</v>
       </c>
       <c r="O30" t="n">
         <v>218162</v>
@@ -2226,11 +2226,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-11-02</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5998</v>
+        <v>6001</v>
       </c>
       <c r="J31" t="n">
-        <v>2749.33306</v>
+        <v>2750.70819</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
@@ -2287,11 +2287,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2020-11-01</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2312,19 +2312,19 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5996</v>
+        <v>5999</v>
       </c>
       <c r="J32" t="n">
-        <v>2748.41631</v>
+        <v>2749.79144</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>117</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0.0195</v>
@@ -2344,15 +2344,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2020-11-02</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2373,22 +2373,22 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5996</v>
+        <v>5998</v>
       </c>
       <c r="J33" t="n">
-        <v>2748.41631</v>
+        <v>2749.33306</v>
       </c>
       <c r="K33" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0193</v>
+        <v>0.0195</v>
       </c>
       <c r="O33" t="n">
         <v>218162</v>
@@ -2405,15 +2405,15 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2020-11-01</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2434,19 +2434,19 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5958</v>
+        <v>5996</v>
       </c>
       <c r="J34" t="n">
-        <v>2730.99807</v>
+        <v>2748.41631</v>
       </c>
       <c r="K34" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0.0195</v>
@@ -2470,11 +2470,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2020-10-29</t>
+          <t>2020-10-31</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5886</v>
+        <v>5996</v>
       </c>
       <c r="J35" t="n">
-        <v>2697.99507</v>
+        <v>2748.41631</v>
       </c>
       <c r="K35" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="L35" t="n">
         <v>116</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0197</v>
+        <v>0.0193</v>
       </c>
       <c r="O35" t="n">
         <v>218162</v>
@@ -2531,11 +2531,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5811</v>
+        <v>5958</v>
       </c>
       <c r="J36" t="n">
-        <v>2663.61695</v>
+        <v>2730.99807</v>
       </c>
       <c r="K36" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="L36" t="n">
         <v>116</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.02</v>
+        <v>0.0195</v>
       </c>
       <c r="O36" t="n">
         <v>218162</v>
@@ -2592,11 +2592,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2020-10-29</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5755</v>
+        <v>5886</v>
       </c>
       <c r="J37" t="n">
-        <v>2637.94795</v>
+        <v>2697.99507</v>
       </c>
       <c r="K37" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L37" t="n">
         <v>116</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0202</v>
+        <v>0.0197</v>
       </c>
       <c r="O37" t="n">
         <v>218162</v>
@@ -2653,11 +2653,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-10-26</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2678,22 +2678,22 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>5743</v>
+        <v>5811</v>
       </c>
       <c r="J38" t="n">
-        <v>2632.44745</v>
+        <v>2663.61695</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L38" t="n">
         <v>116</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="O38" t="n">
         <v>218162</v>
@@ -2714,11 +2714,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2020-10-25</t>
+          <t>2020-10-27</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2739,22 +2739,22 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>5733</v>
+        <v>5755</v>
       </c>
       <c r="J39" t="n">
-        <v>2627.8637</v>
+        <v>2637.94795</v>
       </c>
       <c r="K39" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L39" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O39" t="n">
         <v>218162</v>
@@ -2771,15 +2771,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-26</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2800,19 +2800,19 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>5698</v>
+        <v>5743</v>
       </c>
       <c r="J40" t="n">
-        <v>2611.82057</v>
+        <v>2632.44745</v>
       </c>
       <c r="K40" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>0.0202</v>
@@ -2832,15 +2832,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2020-10-25</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2861,22 +2861,22 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5653</v>
+        <v>5733</v>
       </c>
       <c r="J41" t="n">
-        <v>2591.1937</v>
+        <v>2627.8637</v>
       </c>
       <c r="K41" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L41" t="n">
         <v>115</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0203</v>
+        <v>0.0201</v>
       </c>
       <c r="O41" t="n">
         <v>218162</v>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2922,22 +2922,22 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5609</v>
+        <v>5698</v>
       </c>
       <c r="J42" t="n">
-        <v>2571.0252</v>
+        <v>2611.82057</v>
       </c>
       <c r="K42" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="L42" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O42" t="n">
         <v>218162</v>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2983,19 +2983,19 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5580</v>
+        <v>5653</v>
       </c>
       <c r="J43" t="n">
-        <v>2557.73233</v>
+        <v>2591.1937</v>
       </c>
       <c r="K43" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L43" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
         <v>0.0203</v>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5545</v>
+        <v>5609</v>
       </c>
       <c r="J44" t="n">
-        <v>2541.6892</v>
+        <v>2571.0252</v>
       </c>
       <c r="K44" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L44" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0202</v>
+        <v>0.0201</v>
       </c>
       <c r="O44" t="n">
         <v>218162</v>
@@ -3080,11 +3080,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>5527</v>
+        <v>5580</v>
       </c>
       <c r="J45" t="n">
-        <v>2533.43845</v>
+        <v>2557.73233</v>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L45" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>0.0203</v>
@@ -3141,11 +3141,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2020-10-18</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3166,13 +3166,13 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5518</v>
+        <v>5545</v>
       </c>
       <c r="J46" t="n">
-        <v>2529.31308</v>
+        <v>2541.6892</v>
       </c>
       <c r="K46" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L46" t="n">
         <v>112</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0203</v>
+        <v>0.0202</v>
       </c>
       <c r="O46" t="n">
         <v>218162</v>
@@ -3198,15 +3198,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2020-10-17</t>
+          <t>2020-10-19</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3227,13 +3227,13 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5483</v>
+        <v>5527</v>
       </c>
       <c r="J47" t="n">
-        <v>2513.26996</v>
+        <v>2533.43845</v>
       </c>
       <c r="K47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
         <v>112</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0204</v>
+        <v>0.0203</v>
       </c>
       <c r="O47" t="n">
         <v>218162</v>
@@ -3259,15 +3259,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-18</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3288,22 +3288,22 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5449</v>
+        <v>5518</v>
       </c>
       <c r="J48" t="n">
-        <v>2497.68521</v>
+        <v>2529.31308</v>
       </c>
       <c r="K48" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L48" t="n">
         <v>112</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0206</v>
+        <v>0.0203</v>
       </c>
       <c r="O48" t="n">
         <v>218162</v>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-10-17</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3349,22 +3349,22 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>5417</v>
+        <v>5483</v>
       </c>
       <c r="J49" t="n">
-        <v>2483.01721</v>
+        <v>2513.26996</v>
       </c>
       <c r="K49" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L49" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0205</v>
+        <v>0.0204</v>
       </c>
       <c r="O49" t="n">
         <v>218162</v>
@@ -3385,11 +3385,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3410,22 +3410,22 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5361</v>
+        <v>5449</v>
       </c>
       <c r="J50" t="n">
-        <v>2457.34821</v>
+        <v>2497.68521</v>
       </c>
       <c r="K50" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L50" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0207</v>
+        <v>0.0206</v>
       </c>
       <c r="O50" t="n">
         <v>218162</v>
@@ -3446,11 +3446,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3471,22 +3471,22 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5342</v>
+        <v>5417</v>
       </c>
       <c r="J51" t="n">
-        <v>2448.63908</v>
+        <v>2483.01721</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="L51" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0206</v>
+        <v>0.0205</v>
       </c>
       <c r="O51" t="n">
         <v>218162</v>
@@ -3507,11 +3507,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3532,22 +3532,22 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5341</v>
+        <v>5361</v>
       </c>
       <c r="J52" t="n">
-        <v>2448.18071</v>
+        <v>2457.34821</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L52" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0206</v>
+        <v>0.0207</v>
       </c>
       <c r="O52" t="n">
         <v>218162</v>
@@ -3568,11 +3568,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3593,19 +3593,19 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="J53" t="n">
-        <v>2448.18071</v>
+        <v>2448.63908</v>
       </c>
       <c r="K53" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>110</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0.0206</v>
@@ -3625,15 +3625,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2020-10-10</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3654,22 +3654,22 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5317</v>
+        <v>5341</v>
       </c>
       <c r="J54" t="n">
-        <v>2437.17971</v>
+        <v>2448.18071</v>
       </c>
       <c r="K54" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0205</v>
+        <v>0.0206</v>
       </c>
       <c r="O54" t="n">
         <v>218162</v>
@@ -3686,15 +3686,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2020-10-11</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3715,16 +3715,16 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5295</v>
+        <v>5341</v>
       </c>
       <c r="J55" t="n">
-        <v>2427.09546</v>
+        <v>2448.18071</v>
       </c>
       <c r="K55" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L55" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -3751,11 +3751,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2020-10-08</t>
+          <t>2020-10-10</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3776,19 +3776,19 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>5277</v>
+        <v>5317</v>
       </c>
       <c r="J56" t="n">
-        <v>2418.84471</v>
+        <v>2437.17971</v>
       </c>
       <c r="K56" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L56" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0.0205</v>
@@ -3812,11 +3812,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5244</v>
+        <v>5295</v>
       </c>
       <c r="J57" t="n">
-        <v>2403.71834</v>
+        <v>2427.09546</v>
       </c>
       <c r="K57" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L57" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0204</v>
+        <v>0.0206</v>
       </c>
       <c r="O57" t="n">
         <v>218162</v>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2020-10-08</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3898,16 +3898,16 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5229</v>
+        <v>5277</v>
       </c>
       <c r="J58" t="n">
-        <v>2396.84271</v>
+        <v>2418.84471</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L58" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -3934,11 +3934,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5218</v>
+        <v>5244</v>
       </c>
       <c r="J59" t="n">
-        <v>2391.80059</v>
+        <v>2403.71834</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L59" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0.0203</v>
+        <v>0.0204</v>
       </c>
       <c r="O59" t="n">
         <v>218162</v>
@@ -3995,11 +3995,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4020,22 +4020,22 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5218</v>
+        <v>5229</v>
       </c>
       <c r="J60" t="n">
-        <v>2391.80059</v>
+        <v>2396.84271</v>
       </c>
       <c r="K60" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L60" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0203</v>
+        <v>0.0205</v>
       </c>
       <c r="O60" t="n">
         <v>218162</v>
@@ -4052,15 +4052,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4081,22 +4081,22 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5205</v>
+        <v>5218</v>
       </c>
       <c r="J61" t="n">
-        <v>2385.84171</v>
+        <v>2391.80059</v>
       </c>
       <c r="K61" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>106</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0204</v>
+        <v>0.0203</v>
       </c>
       <c r="O61" t="n">
         <v>218162</v>
@@ -4113,15 +4113,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4142,22 +4142,22 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5178</v>
+        <v>5218</v>
       </c>
       <c r="J62" t="n">
-        <v>2373.46559</v>
+        <v>2391.80059</v>
       </c>
       <c r="K62" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L62" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0201</v>
+        <v>0.0203</v>
       </c>
       <c r="O62" t="n">
         <v>218162</v>
@@ -4178,11 +4178,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2020-10-01</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4203,22 +4203,22 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5161</v>
+        <v>5205</v>
       </c>
       <c r="J63" t="n">
-        <v>2365.67322</v>
+        <v>2385.84171</v>
       </c>
       <c r="K63" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L63" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0202</v>
+        <v>0.0204</v>
       </c>
       <c r="O63" t="n">
         <v>218162</v>
@@ -4239,11 +4239,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4264,22 +4264,22 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5125</v>
+        <v>5178</v>
       </c>
       <c r="J64" t="n">
-        <v>2349.17172</v>
+        <v>2373.46559</v>
       </c>
       <c r="K64" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L64" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0199</v>
+        <v>0.0201</v>
       </c>
       <c r="O64" t="n">
         <v>218162</v>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2020-10-01</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4325,22 +4325,22 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5094</v>
+        <v>5161</v>
       </c>
       <c r="J65" t="n">
-        <v>2334.96209</v>
+        <v>2365.67322</v>
       </c>
       <c r="K65" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L65" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>0.02</v>
+        <v>0.0202</v>
       </c>
       <c r="O65" t="n">
         <v>218162</v>
@@ -4361,11 +4361,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -4386,16 +4386,16 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5081</v>
+        <v>5125</v>
       </c>
       <c r="J66" t="n">
-        <v>2329.00322</v>
+        <v>2349.17172</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L66" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4422,11 +4422,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>5081</v>
+        <v>5094</v>
       </c>
       <c r="J67" t="n">
-        <v>2329.00322</v>
+        <v>2334.96209</v>
       </c>
       <c r="K67" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L67" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="O67" t="n">
         <v>218162</v>
@@ -4479,15 +4479,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2020-09-26</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5073</v>
+        <v>5081</v>
       </c>
       <c r="J68" t="n">
-        <v>2325.33622</v>
+        <v>2329.00322</v>
       </c>
       <c r="K68" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>101</v>
@@ -4540,15 +4540,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>5045</v>
+        <v>5081</v>
       </c>
       <c r="J69" t="n">
-        <v>2312.50172</v>
+        <v>2329.00322</v>
       </c>
       <c r="K69" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L69" t="n">
         <v>101</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="O69" t="n">
         <v>218162</v>
@@ -4605,11 +4605,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2020-09-24</t>
+          <t>2020-09-26</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4630,16 +4630,16 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5018</v>
+        <v>5073</v>
       </c>
       <c r="J70" t="n">
-        <v>2300.12559</v>
+        <v>2325.33622</v>
       </c>
       <c r="K70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L70" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4666,11 +4666,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2020-09-23</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4691,16 +4691,16 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4991</v>
+        <v>5045</v>
       </c>
       <c r="J71" t="n">
-        <v>2287.74947</v>
+        <v>2312.50172</v>
       </c>
       <c r="K71" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L71" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
+          <t>2020-09-24</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4752,22 +4752,22 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4961</v>
+        <v>5018</v>
       </c>
       <c r="J72" t="n">
-        <v>2273.99822</v>
+        <v>2300.12559</v>
       </c>
       <c r="K72" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L72" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="O72" t="n">
         <v>218162</v>
@@ -4788,11 +4788,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2020-09-23</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4813,19 +4813,19 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4954</v>
+        <v>4991</v>
       </c>
       <c r="J73" t="n">
-        <v>2270.7896</v>
+        <v>2287.74947</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L73" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>0.02</v>
@@ -4849,11 +4849,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4954</v>
+        <v>4961</v>
       </c>
       <c r="J74" t="n">
-        <v>2270.7896</v>
+        <v>2273.99822</v>
       </c>
       <c r="K74" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L74" t="n">
         <v>99</v>
@@ -4906,15 +4906,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2020-09-19</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4940</v>
+        <v>4954</v>
       </c>
       <c r="J75" t="n">
-        <v>2264.37235</v>
+        <v>2270.7896</v>
       </c>
       <c r="K75" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>99</v>
@@ -4967,15 +4967,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4996,22 +4996,22 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>4911</v>
+        <v>4954</v>
       </c>
       <c r="J76" t="n">
-        <v>2251.07947</v>
+        <v>2270.7896</v>
       </c>
       <c r="K76" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L76" t="n">
         <v>99</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="O76" t="n">
         <v>218162</v>
@@ -5032,11 +5032,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5057,22 +5057,22 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4886</v>
+        <v>4940</v>
       </c>
       <c r="J77" t="n">
-        <v>2239.6201</v>
+        <v>2264.37235</v>
       </c>
       <c r="K77" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L77" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="O77" t="n">
         <v>218162</v>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5118,22 +5118,22 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4853</v>
+        <v>4911</v>
       </c>
       <c r="J78" t="n">
-        <v>2224.49372</v>
+        <v>2251.07947</v>
       </c>
       <c r="K78" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="L78" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02</v>
+        <v>0.0202</v>
       </c>
       <c r="O78" t="n">
         <v>218162</v>
@@ -5154,11 +5154,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -5179,22 +5179,22 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4793</v>
+        <v>4886</v>
       </c>
       <c r="J79" t="n">
-        <v>2196.99123</v>
+        <v>2239.6201</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L79" t="n">
         <v>97</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0202</v>
+        <v>0.0199</v>
       </c>
       <c r="O79" t="n">
         <v>218162</v>
@@ -5215,11 +5215,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5240,22 +5240,22 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4783</v>
+        <v>4853</v>
       </c>
       <c r="J80" t="n">
-        <v>2192.40748</v>
+        <v>2224.49372</v>
       </c>
       <c r="K80" t="n">
-        <v>-4</v>
+        <v>60</v>
       </c>
       <c r="L80" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
       <c r="O80" t="n">
         <v>218162</v>
@@ -5276,11 +5276,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4787</v>
+        <v>4793</v>
       </c>
       <c r="J81" t="n">
-        <v>2194.24098</v>
+        <v>2196.99123</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L81" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O81" t="n">
         <v>218162</v>
@@ -5333,15 +5333,15 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2020-09-12</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5362,22 +5362,22 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>4772</v>
+        <v>4783</v>
       </c>
       <c r="J82" t="n">
-        <v>2187.36535</v>
+        <v>2192.40748</v>
       </c>
       <c r="K82" t="n">
-        <v>56</v>
+        <v>-4</v>
       </c>
       <c r="L82" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0197</v>
+        <v>0.0201</v>
       </c>
       <c r="O82" t="n">
         <v>218162</v>
@@ -5394,15 +5394,15 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5423,22 +5423,22 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4716</v>
+        <v>4787</v>
       </c>
       <c r="J83" t="n">
-        <v>2161.69635</v>
+        <v>2194.24098</v>
       </c>
       <c r="K83" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L83" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0197</v>
+        <v>0.0201</v>
       </c>
       <c r="O83" t="n">
         <v>218162</v>
@@ -5459,11 +5459,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
+          <t>2020-09-12</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5484,22 +5484,22 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4680</v>
+        <v>4772</v>
       </c>
       <c r="J84" t="n">
-        <v>2145.19486</v>
+        <v>2187.36535</v>
       </c>
       <c r="K84" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="L84" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0199</v>
+        <v>0.0197</v>
       </c>
       <c r="O84" t="n">
         <v>218162</v>
@@ -5520,11 +5520,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
+          <t>2020-09-11</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5545,13 +5545,13 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4654</v>
+        <v>4716</v>
       </c>
       <c r="J85" t="n">
-        <v>2133.27711</v>
+        <v>2161.69635</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L85" t="n">
         <v>93</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02</v>
+        <v>0.0197</v>
       </c>
       <c r="O85" t="n">
         <v>218162</v>
@@ -5581,11 +5581,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5606,13 +5606,13 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4654</v>
+        <v>4680</v>
       </c>
       <c r="J86" t="n">
-        <v>2133.27711</v>
+        <v>2145.19486</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="L86" t="n">
         <v>93</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="O86" t="n">
         <v>218162</v>
@@ -5642,11 +5642,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -5667,13 +5667,13 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="J87" t="n">
-        <v>2132.81873</v>
+        <v>2133.27711</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>93</v>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>4652</v>
+        <v>4654</v>
       </c>
       <c r="J88" t="n">
-        <v>2132.36036</v>
+        <v>2133.27711</v>
       </c>
       <c r="K88" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>93</v>
@@ -5760,15 +5760,15 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5789,13 +5789,13 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>4638</v>
+        <v>4653</v>
       </c>
       <c r="J89" t="n">
-        <v>2125.94311</v>
+        <v>2132.81873</v>
       </c>
       <c r="K89" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>93</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0201</v>
+        <v>0.02</v>
       </c>
       <c r="O89" t="n">
         <v>218162</v>
@@ -5821,15 +5821,15 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -5850,22 +5850,22 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>4608</v>
+        <v>4652</v>
       </c>
       <c r="J90" t="n">
-        <v>2112.19186</v>
+        <v>2132.36036</v>
       </c>
       <c r="K90" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L90" t="n">
         <v>93</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0202</v>
+        <v>0.02</v>
       </c>
       <c r="O90" t="n">
         <v>218162</v>
@@ -5886,11 +5886,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -5911,19 +5911,19 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>4573</v>
+        <v>4638</v>
       </c>
       <c r="J91" t="n">
-        <v>2096.14873</v>
+        <v>2125.94311</v>
       </c>
       <c r="K91" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="L91" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0.0201</v>
@@ -5947,11 +5947,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -5972,22 +5972,22 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>4520</v>
+        <v>4608</v>
       </c>
       <c r="J92" t="n">
-        <v>2071.85486</v>
+        <v>2112.19186</v>
       </c>
       <c r="K92" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="L92" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0201</v>
+        <v>0.0202</v>
       </c>
       <c r="O92" t="n">
         <v>218162</v>
@@ -6008,11 +6008,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -6033,22 +6033,22 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>4435</v>
+        <v>4573</v>
       </c>
       <c r="J93" t="n">
-        <v>2032.89299</v>
+        <v>2096.14873</v>
       </c>
       <c r="K93" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L93" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
       <c r="O93" t="n">
         <v>218162</v>
@@ -6069,11 +6069,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6094,22 +6094,22 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>4401</v>
+        <v>4520</v>
       </c>
       <c r="J94" t="n">
-        <v>2017.30824</v>
+        <v>2071.85486</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="L94" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M94" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02</v>
+        <v>0.0201</v>
       </c>
       <c r="O94" t="n">
         <v>218162</v>
@@ -6130,11 +6130,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2020-08-30</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -6155,22 +6155,22 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>4400</v>
+        <v>4435</v>
       </c>
       <c r="J95" t="n">
-        <v>2016.84986</v>
+        <v>2032.89299</v>
       </c>
       <c r="K95" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L95" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0186</v>
+        <v>0.0205</v>
       </c>
       <c r="O95" t="n">
         <v>218162</v>
@@ -6187,15 +6187,15 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -6216,22 +6216,22 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>4391</v>
+        <v>4401</v>
       </c>
       <c r="J96" t="n">
-        <v>2012.72449</v>
+        <v>2017.30824</v>
       </c>
       <c r="K96" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0184</v>
+        <v>0.02</v>
       </c>
       <c r="O96" t="n">
         <v>218162</v>
@@ -6248,15 +6248,15 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6277,22 +6277,22 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>4309</v>
+        <v>4400</v>
       </c>
       <c r="J97" t="n">
-        <v>1975.13774</v>
+        <v>2016.84986</v>
       </c>
       <c r="K97" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="L97" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>0.0188</v>
+        <v>0.0186</v>
       </c>
       <c r="O97" t="n">
         <v>218162</v>
@@ -6313,11 +6313,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6338,22 +6338,22 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>4273</v>
+        <v>4391</v>
       </c>
       <c r="J98" t="n">
-        <v>1958.63624</v>
+        <v>2012.72449</v>
       </c>
       <c r="K98" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="L98" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0187</v>
+        <v>0.0184</v>
       </c>
       <c r="O98" t="n">
         <v>218162</v>
@@ -6374,11 +6374,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6399,22 +6399,22 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>4234</v>
+        <v>4309</v>
       </c>
       <c r="J99" t="n">
-        <v>1940.75962</v>
+        <v>1975.13774</v>
       </c>
       <c r="K99" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="L99" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0182</v>
+        <v>0.0188</v>
       </c>
       <c r="O99" t="n">
         <v>218162</v>
@@ -6435,11 +6435,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -6460,22 +6460,22 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4168</v>
+        <v>4273</v>
       </c>
       <c r="J100" t="n">
-        <v>1910.50687</v>
+        <v>1958.63624</v>
       </c>
       <c r="K100" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L100" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0182</v>
+        <v>0.0187</v>
       </c>
       <c r="O100" t="n">
         <v>218162</v>
@@ -6496,11 +6496,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6521,22 +6521,22 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>4115</v>
+        <v>4234</v>
       </c>
       <c r="J101" t="n">
-        <v>1886.213</v>
+        <v>1940.75962</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="L101" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0185</v>
+        <v>0.0182</v>
       </c>
       <c r="O101" t="n">
         <v>218162</v>
@@ -6557,11 +6557,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2020-08-23</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6582,16 +6582,16 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4114</v>
+        <v>4168</v>
       </c>
       <c r="J102" t="n">
-        <v>1885.75462</v>
+        <v>1910.50687</v>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="L102" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6614,15 +6614,15 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2020-08-22</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6643,22 +6643,22 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>4110</v>
+        <v>4115</v>
       </c>
       <c r="J103" t="n">
-        <v>1883.92112</v>
+        <v>1886.213</v>
       </c>
       <c r="K103" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0182</v>
+        <v>0.0185</v>
       </c>
       <c r="O103" t="n">
         <v>218162</v>
@@ -6675,15 +6675,15 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -6704,22 +6704,22 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>4065</v>
+        <v>4114</v>
       </c>
       <c r="J104" t="n">
-        <v>1863.29425</v>
+        <v>1885.75462</v>
       </c>
       <c r="K104" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="L104" t="n">
         <v>75</v>
       </c>
       <c r="M104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0185</v>
+        <v>0.0182</v>
       </c>
       <c r="O104" t="n">
         <v>218162</v>
@@ -6740,11 +6740,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-08-22</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -6765,19 +6765,19 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>4022</v>
+        <v>4110</v>
       </c>
       <c r="J105" t="n">
-        <v>1843.58413</v>
+        <v>1883.92112</v>
       </c>
       <c r="K105" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L105" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0.0182</v>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -6826,22 +6826,22 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3961</v>
+        <v>4065</v>
       </c>
       <c r="J106" t="n">
-        <v>1815.62325</v>
+        <v>1863.29425</v>
       </c>
       <c r="K106" t="n">
+        <v>43</v>
+      </c>
+      <c r="L106" t="n">
         <v>75</v>
       </c>
-      <c r="L106" t="n">
-        <v>72</v>
-      </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0182</v>
+        <v>0.0185</v>
       </c>
       <c r="O106" t="n">
         <v>218162</v>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6887,22 +6887,22 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3886</v>
+        <v>4022</v>
       </c>
       <c r="J107" t="n">
-        <v>1781.24513</v>
+        <v>1843.58413</v>
       </c>
       <c r="K107" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L107" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M107" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0185</v>
+        <v>0.0182</v>
       </c>
       <c r="O107" t="n">
         <v>218162</v>
@@ -6923,11 +6923,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -6948,22 +6948,22 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3832</v>
+        <v>3961</v>
       </c>
       <c r="J108" t="n">
-        <v>1756.49288</v>
+        <v>1815.62325</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="L108" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0175</v>
+        <v>0.0182</v>
       </c>
       <c r="O108" t="n">
         <v>218162</v>
@@ -6984,11 +6984,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2020-08-16</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -7009,22 +7009,22 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>3830</v>
+        <v>3886</v>
       </c>
       <c r="J109" t="n">
-        <v>1755.57613</v>
+        <v>1781.24513</v>
       </c>
       <c r="K109" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L109" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0175</v>
+        <v>0.0185</v>
       </c>
       <c r="O109" t="n">
         <v>218162</v>
@@ -7041,15 +7041,15 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -7070,22 +7070,22 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>3803</v>
+        <v>3832</v>
       </c>
       <c r="J110" t="n">
-        <v>1743.20001</v>
+        <v>1756.49288</v>
       </c>
       <c r="K110" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="L110" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0174</v>
+        <v>0.0175</v>
       </c>
       <c r="O110" t="n">
         <v>218162</v>
@@ -7102,15 +7102,15 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -7131,22 +7131,22 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>3724</v>
+        <v>3830</v>
       </c>
       <c r="J111" t="n">
-        <v>1706.98838</v>
+        <v>1755.57613</v>
       </c>
       <c r="K111" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="L111" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0177</v>
+        <v>0.0175</v>
       </c>
       <c r="O111" t="n">
         <v>218162</v>
@@ -7167,11 +7167,11 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -7192,22 +7192,22 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3659</v>
+        <v>3803</v>
       </c>
       <c r="J112" t="n">
-        <v>1677.19401</v>
+        <v>1743.20001</v>
       </c>
       <c r="K112" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L112" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0175</v>
+        <v>0.0174</v>
       </c>
       <c r="O112" t="n">
         <v>218162</v>
@@ -7228,11 +7228,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7253,22 +7253,22 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3585</v>
+        <v>3724</v>
       </c>
       <c r="J113" t="n">
-        <v>1643.27426</v>
+        <v>1706.98838</v>
       </c>
       <c r="K113" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="L113" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N113" t="n">
-        <v>0.0176</v>
+        <v>0.0177</v>
       </c>
       <c r="O113" t="n">
         <v>218162</v>
@@ -7289,11 +7289,11 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3480</v>
+        <v>3659</v>
       </c>
       <c r="J114" t="n">
-        <v>1595.14489</v>
+        <v>1677.19401</v>
       </c>
       <c r="K114" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="L114" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0178</v>
+        <v>0.0175</v>
       </c>
       <c r="O114" t="n">
         <v>218162</v>
@@ -7350,11 +7350,11 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7375,22 +7375,22 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3435</v>
+        <v>3585</v>
       </c>
       <c r="J115" t="n">
-        <v>1574.51802</v>
+        <v>1643.27426</v>
       </c>
       <c r="K115" t="n">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="L115" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115" t="n">
-        <v>0.018</v>
+        <v>0.0176</v>
       </c>
       <c r="O115" t="n">
         <v>218162</v>
@@ -7411,11 +7411,11 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2020-08-09</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7436,22 +7436,22 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3432</v>
+        <v>3480</v>
       </c>
       <c r="J116" t="n">
-        <v>1573.14289</v>
+        <v>1595.14489</v>
       </c>
       <c r="K116" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L116" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0175</v>
+        <v>0.0178</v>
       </c>
       <c r="O116" t="n">
         <v>218162</v>
@@ -7468,15 +7468,15 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2020-08-08</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7497,22 +7497,22 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3400</v>
+        <v>3435</v>
       </c>
       <c r="J117" t="n">
-        <v>1558.47489</v>
+        <v>1574.51802</v>
       </c>
       <c r="K117" t="n">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="L117" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0176</v>
+        <v>0.018</v>
       </c>
       <c r="O117" t="n">
         <v>218162</v>
@@ -7529,51 +7529,51 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>33</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2020-08-09</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>140</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>3432</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1573.14289</v>
+      </c>
+      <c r="K118" t="n">
         <v>32</v>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2020-08-07</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>138</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Juazeiro</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>2918407</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>3265</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1496.59427</v>
-      </c>
-      <c r="K118" t="n">
-        <v>103</v>
-      </c>
       <c r="L118" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0181</v>
+        <v>0.0175</v>
       </c>
       <c r="O118" t="n">
         <v>218162</v>
@@ -7594,11 +7594,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7619,22 +7619,22 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>3162</v>
+        <v>3400</v>
       </c>
       <c r="J119" t="n">
-        <v>1449.38165</v>
+        <v>1558.47489</v>
       </c>
       <c r="K119" t="n">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="L119" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0187</v>
+        <v>0.0176</v>
       </c>
       <c r="O119" t="n">
         <v>218162</v>
@@ -7655,11 +7655,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -7680,13 +7680,13 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>3085</v>
+        <v>3265</v>
       </c>
       <c r="J120" t="n">
-        <v>1414.08678</v>
+        <v>1496.59427</v>
       </c>
       <c r="K120" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L120" t="n">
         <v>59</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0191</v>
+        <v>0.0181</v>
       </c>
       <c r="O120" t="n">
         <v>218162</v>
@@ -7716,11 +7716,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -7741,22 +7741,22 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2974</v>
+        <v>3162</v>
       </c>
       <c r="J121" t="n">
-        <v>1363.20716</v>
+        <v>1449.38165</v>
       </c>
       <c r="K121" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L121" t="n">
         <v>59</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0198</v>
+        <v>0.0187</v>
       </c>
       <c r="O121" t="n">
         <v>218162</v>
@@ -7777,11 +7777,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -7802,22 +7802,22 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2910</v>
+        <v>3085</v>
       </c>
       <c r="J122" t="n">
-        <v>1333.87116</v>
+        <v>1414.08678</v>
       </c>
       <c r="K122" t="n">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="L122" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0199</v>
+        <v>0.0191</v>
       </c>
       <c r="O122" t="n">
         <v>218162</v>
@@ -7838,11 +7838,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2020-08-02</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -7863,22 +7863,22 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2905</v>
+        <v>2974</v>
       </c>
       <c r="J123" t="n">
-        <v>1331.57929</v>
+        <v>1363.20716</v>
       </c>
       <c r="K123" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="L123" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02</v>
+        <v>0.0198</v>
       </c>
       <c r="O123" t="n">
         <v>218162</v>
@@ -7895,15 +7895,15 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7924,19 +7924,19 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2866</v>
+        <v>2910</v>
       </c>
       <c r="J124" t="n">
-        <v>1313.70266</v>
+        <v>1333.87116</v>
       </c>
       <c r="K124" t="n">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="L124" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0.0199</v>
@@ -7956,15 +7956,15 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-08-02</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7985,22 +7985,22 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2758</v>
+        <v>2905</v>
       </c>
       <c r="J125" t="n">
-        <v>1264.19816</v>
+        <v>1331.57929</v>
       </c>
       <c r="K125" t="n">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="L125" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0196</v>
+        <v>0.02</v>
       </c>
       <c r="O125" t="n">
         <v>218162</v>
@@ -8021,11 +8021,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -8046,22 +8046,22 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2592</v>
+        <v>2866</v>
       </c>
       <c r="J126" t="n">
-        <v>1188.10792</v>
+        <v>1313.70266</v>
       </c>
       <c r="K126" t="n">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="L126" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0201</v>
+        <v>0.0199</v>
       </c>
       <c r="O126" t="n">
         <v>218162</v>
@@ -8082,11 +8082,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -8107,22 +8107,22 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2455</v>
+        <v>2758</v>
       </c>
       <c r="J127" t="n">
-        <v>1125.31055</v>
+        <v>1264.19816</v>
       </c>
       <c r="K127" t="n">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="L127" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0208</v>
+        <v>0.0196</v>
       </c>
       <c r="O127" t="n">
         <v>218162</v>
@@ -8143,11 +8143,11 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -8168,22 +8168,22 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2356</v>
+        <v>2592</v>
       </c>
       <c r="J128" t="n">
-        <v>1079.93143</v>
+        <v>1188.10792</v>
       </c>
       <c r="K128" t="n">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="L128" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0216</v>
+        <v>0.0201</v>
       </c>
       <c r="O128" t="n">
         <v>218162</v>
@@ -8204,11 +8204,11 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2020-07-27</t>
+          <t>2020-07-29</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -8229,22 +8229,22 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2299</v>
+        <v>2455</v>
       </c>
       <c r="J129" t="n">
-        <v>1053.80405</v>
+        <v>1125.31055</v>
       </c>
       <c r="K129" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="L129" t="n">
         <v>51</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0222</v>
+        <v>0.0208</v>
       </c>
       <c r="O129" t="n">
         <v>218162</v>
@@ -8265,11 +8265,11 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8290,22 +8290,22 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2297</v>
+        <v>2356</v>
       </c>
       <c r="J130" t="n">
-        <v>1052.8873</v>
+        <v>1079.93143</v>
       </c>
       <c r="K130" t="n">
+        <v>57</v>
+      </c>
+      <c r="L130" t="n">
         <v>51</v>
       </c>
-      <c r="L130" t="n">
-        <v>50</v>
-      </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0218</v>
+        <v>0.0216</v>
       </c>
       <c r="O130" t="n">
         <v>218162</v>
@@ -8322,15 +8322,15 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2020-07-25</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8351,22 +8351,22 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2246</v>
+        <v>2299</v>
       </c>
       <c r="J131" t="n">
-        <v>1029.51018</v>
+        <v>1053.80405</v>
       </c>
       <c r="K131" t="n">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0223</v>
+        <v>0.0222</v>
       </c>
       <c r="O131" t="n">
         <v>218162</v>
@@ -8383,15 +8383,15 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2020-07-24</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -8412,22 +8412,22 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2076</v>
+        <v>2297</v>
       </c>
       <c r="J132" t="n">
-        <v>951.58644</v>
+        <v>1052.8873</v>
       </c>
       <c r="K132" t="n">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="L132" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0231</v>
+        <v>0.0218</v>
       </c>
       <c r="O132" t="n">
         <v>218162</v>
@@ -8448,11 +8448,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2020-07-23</t>
+          <t>2020-07-25</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8473,22 +8473,22 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1948</v>
+        <v>2246</v>
       </c>
       <c r="J133" t="n">
-        <v>892.91444</v>
+        <v>1029.51018</v>
       </c>
       <c r="K133" t="n">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="L133" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N133" t="n">
-        <v>0.0241</v>
+        <v>0.0223</v>
       </c>
       <c r="O133" t="n">
         <v>218162</v>
@@ -8509,11 +8509,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-07-24</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -8534,22 +8534,22 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1797</v>
+        <v>2076</v>
       </c>
       <c r="J134" t="n">
-        <v>823.69982</v>
+        <v>951.58644</v>
       </c>
       <c r="K134" t="n">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="L134" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0262</v>
+        <v>0.0231</v>
       </c>
       <c r="O134" t="n">
         <v>218162</v>
@@ -8570,11 +8570,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8595,22 +8595,22 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1696</v>
+        <v>1948</v>
       </c>
       <c r="J135" t="n">
-        <v>777.40395</v>
+        <v>892.91444</v>
       </c>
       <c r="K135" t="n">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="L135" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0265</v>
+        <v>0.0241</v>
       </c>
       <c r="O135" t="n">
         <v>218162</v>
@@ -8631,11 +8631,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -8656,22 +8656,22 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1663</v>
+        <v>1797</v>
       </c>
       <c r="J136" t="n">
-        <v>762.27757</v>
+        <v>823.69982</v>
       </c>
       <c r="K136" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="L136" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M136" t="n">
         <v>2</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0265</v>
+        <v>0.0262</v>
       </c>
       <c r="O136" t="n">
         <v>218162</v>
@@ -8692,11 +8692,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -8717,22 +8717,22 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1658</v>
+        <v>1696</v>
       </c>
       <c r="J137" t="n">
-        <v>759.9857</v>
+        <v>777.40395</v>
       </c>
       <c r="K137" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L137" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0253</v>
+        <v>0.0265</v>
       </c>
       <c r="O137" t="n">
         <v>218162</v>
@@ -8749,15 +8749,15 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8778,22 +8778,22 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1594</v>
+        <v>1663</v>
       </c>
       <c r="J138" t="n">
-        <v>730.6497000000001</v>
+        <v>762.27757</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L138" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0263</v>
+        <v>0.0265</v>
       </c>
       <c r="O138" t="n">
         <v>218162</v>
@@ -8810,15 +8810,15 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8839,22 +8839,22 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1593</v>
+        <v>1658</v>
       </c>
       <c r="J139" t="n">
-        <v>730.19133</v>
+        <v>759.9857</v>
       </c>
       <c r="K139" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L139" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0257</v>
+        <v>0.0253</v>
       </c>
       <c r="O139" t="n">
         <v>218162</v>
@@ -8875,11 +8875,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2020-07-18</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -8900,22 +8900,22 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1560</v>
+        <v>1594</v>
       </c>
       <c r="J140" t="n">
-        <v>715.06495</v>
+        <v>730.6497000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0256</v>
+        <v>0.0263</v>
       </c>
       <c r="O140" t="n">
         <v>218162</v>
@@ -8936,11 +8936,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -8961,22 +8961,22 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1523</v>
+        <v>1593</v>
       </c>
       <c r="J141" t="n">
-        <v>698.1050799999999</v>
+        <v>730.19133</v>
       </c>
       <c r="K141" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L141" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0256</v>
+        <v>0.0257</v>
       </c>
       <c r="O141" t="n">
         <v>218162</v>
@@ -8997,11 +8997,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2020-07-14</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -9022,22 +9022,22 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="J142" t="n">
-        <v>678.39495</v>
+        <v>715.06495</v>
       </c>
       <c r="K142" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L142" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0236</v>
+        <v>0.0256</v>
       </c>
       <c r="O142" t="n">
         <v>218162</v>
@@ -9058,11 +9058,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -9083,22 +9083,22 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1431</v>
+        <v>1523</v>
       </c>
       <c r="J143" t="n">
-        <v>655.93458</v>
+        <v>698.1050799999999</v>
       </c>
       <c r="K143" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="L143" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N143" t="n">
-        <v>0.0231</v>
+        <v>0.0256</v>
       </c>
       <c r="O143" t="n">
         <v>218162</v>
@@ -9119,11 +9119,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2020-07-12</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -9144,22 +9144,22 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1425</v>
+        <v>1480</v>
       </c>
       <c r="J144" t="n">
-        <v>653.1843299999999</v>
+        <v>678.39495</v>
       </c>
       <c r="K144" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L144" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0232</v>
+        <v>0.0236</v>
       </c>
       <c r="O144" t="n">
         <v>218162</v>
@@ -9176,15 +9176,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2020-07-11</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -9205,13 +9205,13 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1361</v>
+        <v>1431</v>
       </c>
       <c r="J145" t="n">
-        <v>623.84833</v>
+        <v>655.93458</v>
       </c>
       <c r="K145" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="L145" t="n">
         <v>33</v>
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0242</v>
+        <v>0.0231</v>
       </c>
       <c r="O145" t="n">
         <v>218162</v>
@@ -9237,15 +9237,15 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-12</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -9266,22 +9266,22 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1272</v>
+        <v>1425</v>
       </c>
       <c r="J146" t="n">
-        <v>583.05296</v>
+        <v>653.1843299999999</v>
       </c>
       <c r="K146" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="L146" t="n">
         <v>33</v>
       </c>
       <c r="M146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0259</v>
+        <v>0.0232</v>
       </c>
       <c r="O146" t="n">
         <v>218162</v>
@@ -9302,11 +9302,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-07-11</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9327,22 +9327,22 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1195</v>
+        <v>1361</v>
       </c>
       <c r="J147" t="n">
-        <v>547.75809</v>
+        <v>623.84833</v>
       </c>
       <c r="K147" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L147" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0259</v>
+        <v>0.0242</v>
       </c>
       <c r="O147" t="n">
         <v>218162</v>
@@ -9363,11 +9363,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9388,22 +9388,22 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1098</v>
+        <v>1272</v>
       </c>
       <c r="J148" t="n">
-        <v>503.29572</v>
+        <v>583.05296</v>
       </c>
       <c r="K148" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="L148" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0264</v>
+        <v>0.0259</v>
       </c>
       <c r="O148" t="n">
         <v>218162</v>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9449,22 +9449,22 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1049</v>
+        <v>1195</v>
       </c>
       <c r="J149" t="n">
-        <v>480.83534</v>
+        <v>547.75809</v>
       </c>
       <c r="K149" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="L149" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M149" t="n">
         <v>2</v>
       </c>
       <c r="N149" t="n">
-        <v>0.0248</v>
+        <v>0.0259</v>
       </c>
       <c r="O149" t="n">
         <v>218162</v>
@@ -9485,11 +9485,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -9510,22 +9510,22 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1024</v>
+        <v>1098</v>
       </c>
       <c r="J150" t="n">
-        <v>469.37597</v>
+        <v>503.29572</v>
       </c>
       <c r="K150" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="L150" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N150" t="n">
-        <v>0.0234</v>
+        <v>0.0264</v>
       </c>
       <c r="O150" t="n">
         <v>218162</v>
@@ -9546,11 +9546,11 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9571,22 +9571,22 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="J151" t="n">
-        <v>465.70897</v>
+        <v>480.83534</v>
       </c>
       <c r="K151" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="L151" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0236</v>
+        <v>0.0248</v>
       </c>
       <c r="O151" t="n">
         <v>218162</v>
@@ -9603,15 +9603,15 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -9632,13 +9632,13 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>954</v>
+        <v>1024</v>
       </c>
       <c r="J152" t="n">
-        <v>437.28972</v>
+        <v>469.37597</v>
       </c>
       <c r="K152" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="L152" t="n">
         <v>24</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>0.0252</v>
+        <v>0.0234</v>
       </c>
       <c r="O152" t="n">
         <v>218162</v>
@@ -9664,15 +9664,15 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -9693,22 +9693,22 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>866</v>
+        <v>1016</v>
       </c>
       <c r="J153" t="n">
-        <v>396.95272</v>
+        <v>465.70897</v>
       </c>
       <c r="K153" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L153" t="n">
         <v>24</v>
       </c>
       <c r="M153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>0.0277</v>
+        <v>0.0236</v>
       </c>
       <c r="O153" t="n">
         <v>218162</v>
@@ -9729,11 +9729,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2020-07-02</t>
+          <t>2020-07-04</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9754,22 +9754,22 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>785</v>
+        <v>954</v>
       </c>
       <c r="J154" t="n">
-        <v>359.82435</v>
+        <v>437.28972</v>
       </c>
       <c r="K154" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L154" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0293</v>
+        <v>0.0252</v>
       </c>
       <c r="O154" t="n">
         <v>218162</v>
@@ -9790,11 +9790,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -9815,22 +9815,22 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>721</v>
+        <v>866</v>
       </c>
       <c r="J155" t="n">
-        <v>330.48835</v>
+        <v>396.95272</v>
       </c>
       <c r="K155" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="L155" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0291</v>
+        <v>0.0277</v>
       </c>
       <c r="O155" t="n">
         <v>218162</v>
@@ -9851,11 +9851,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-07-02</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -9876,22 +9876,22 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>621</v>
+        <v>785</v>
       </c>
       <c r="J156" t="n">
-        <v>284.65086</v>
+        <v>359.82435</v>
       </c>
       <c r="K156" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L156" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0306</v>
+        <v>0.0293</v>
       </c>
       <c r="O156" t="n">
         <v>218162</v>
@@ -9912,11 +9912,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -9937,22 +9937,22 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>590</v>
+        <v>721</v>
       </c>
       <c r="J157" t="n">
-        <v>270.44123</v>
+        <v>330.48835</v>
       </c>
       <c r="K157" t="n">
+        <v>100</v>
+      </c>
+      <c r="L157" t="n">
         <v>21</v>
       </c>
-      <c r="L157" t="n">
-        <v>19</v>
-      </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0322</v>
+        <v>0.0291</v>
       </c>
       <c r="O157" t="n">
         <v>218162</v>
@@ -9973,11 +9973,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -9998,22 +9998,22 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="J158" t="n">
-        <v>260.81536</v>
+        <v>284.65086</v>
       </c>
       <c r="K158" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L158" t="n">
         <v>19</v>
       </c>
       <c r="M158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0334</v>
+        <v>0.0306</v>
       </c>
       <c r="O158" t="n">
         <v>218162</v>
@@ -10030,15 +10030,15 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2020-06-27</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -10059,22 +10059,22 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="J159" t="n">
-        <v>255.31486</v>
+        <v>270.44123</v>
       </c>
       <c r="K159" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="L159" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0323</v>
+        <v>0.0322</v>
       </c>
       <c r="O159" t="n">
         <v>218162</v>
@@ -10091,15 +10091,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2020-06-26</t>
+          <t>2020-06-28</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -10120,22 +10120,22 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="J160" t="n">
-        <v>220.47836</v>
+        <v>260.81536</v>
       </c>
       <c r="K160" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="L160" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0312</v>
+        <v>0.0334</v>
       </c>
       <c r="O160" t="n">
         <v>218162</v>
@@ -10156,11 +10156,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2020-06-25</t>
+          <t>2020-06-27</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -10181,22 +10181,22 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="J161" t="n">
-        <v>198.93474</v>
+        <v>255.31486</v>
       </c>
       <c r="K161" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="L161" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0346</v>
+        <v>0.0323</v>
       </c>
       <c r="O161" t="n">
         <v>218162</v>
@@ -10217,11 +10217,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2020-06-24</t>
+          <t>2020-06-26</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -10242,22 +10242,22 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>397</v>
+        <v>481</v>
       </c>
       <c r="J162" t="n">
-        <v>181.97486</v>
+        <v>220.47836</v>
       </c>
       <c r="K162" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L162" t="n">
         <v>15</v>
       </c>
       <c r="M162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0378</v>
+        <v>0.0312</v>
       </c>
       <c r="O162" t="n">
         <v>218162</v>
@@ -10278,11 +10278,11 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2020-06-25</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -10303,22 +10303,22 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>339</v>
+        <v>434</v>
       </c>
       <c r="J163" t="n">
-        <v>155.38911</v>
+        <v>198.93474</v>
       </c>
       <c r="K163" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L163" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M163" t="n">
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0354</v>
+        <v>0.0346</v>
       </c>
       <c r="O163" t="n">
         <v>218162</v>
@@ -10339,11 +10339,11 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2020-06-24</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -10364,22 +10364,22 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="J164" t="n">
-        <v>145.76324</v>
+        <v>181.97486</v>
       </c>
       <c r="K164" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="L164" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0377</v>
+        <v>0.0378</v>
       </c>
       <c r="O164" t="n">
         <v>218162</v>
@@ -10400,11 +10400,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2020-06-21</t>
+          <t>2020-06-23</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -10425,22 +10425,22 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="J165" t="n">
-        <v>145.30487</v>
+        <v>155.38911</v>
       </c>
       <c r="K165" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L165" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0315</v>
+        <v>0.0354</v>
       </c>
       <c r="O165" t="n">
         <v>218162</v>
@@ -10457,15 +10457,15 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2020-06-20</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -10486,22 +10486,22 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="J166" t="n">
-        <v>123.30287</v>
+        <v>145.76324</v>
       </c>
       <c r="K166" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="L166" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0335</v>
+        <v>0.0377</v>
       </c>
       <c r="O166" t="n">
         <v>218162</v>
@@ -10518,15 +10518,15 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2020-06-19</t>
+          <t>2020-06-21</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -10547,22 +10547,22 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="J167" t="n">
-        <v>93.50849000000001</v>
+        <v>145.30487</v>
       </c>
       <c r="K167" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="L167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0441</v>
+        <v>0.0315</v>
       </c>
       <c r="O167" t="n">
         <v>218162</v>
@@ -10583,11 +10583,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2020-06-18</t>
+          <t>2020-06-20</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -10608,22 +10608,22 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="J168" t="n">
-        <v>92.13337</v>
+        <v>123.30287</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M168" t="n">
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0398</v>
+        <v>0.0335</v>
       </c>
       <c r="O168" t="n">
         <v>218162</v>
@@ -10644,11 +10644,11 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2020-06-17</t>
+          <t>2020-06-19</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -10669,22 +10669,22 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J169" t="n">
-        <v>92.13337</v>
+        <v>93.50849000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L169" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0398</v>
+        <v>0.0441</v>
       </c>
       <c r="O169" t="n">
         <v>218162</v>
@@ -10705,11 +10705,11 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2020-06-16</t>
+          <t>2020-06-18</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -10730,13 +10730,13 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="J170" t="n">
-        <v>82.96587</v>
+        <v>92.13337</v>
       </c>
       <c r="K170" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>8</v>
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0442</v>
+        <v>0.0398</v>
       </c>
       <c r="O170" t="n">
         <v>218162</v>
@@ -10766,11 +10766,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2020-06-15</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -10791,22 +10791,22 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="J171" t="n">
-        <v>79.29886999999999</v>
+        <v>92.13337</v>
       </c>
       <c r="K171" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L171" t="n">
         <v>8</v>
       </c>
       <c r="M171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0462</v>
+        <v>0.0398</v>
       </c>
       <c r="O171" t="n">
         <v>218162</v>
@@ -10827,11 +10827,11 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2020-06-14</t>
+          <t>2020-06-16</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -10852,22 +10852,22 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J172" t="n">
-        <v>77.46536999999999</v>
+        <v>82.96587</v>
       </c>
       <c r="K172" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L172" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0414</v>
+        <v>0.0442</v>
       </c>
       <c r="O172" t="n">
         <v>218162</v>
@@ -10884,15 +10884,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2020-06-13</t>
+          <t>2020-06-15</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -10913,22 +10913,22 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J173" t="n">
-        <v>77.00699</v>
+        <v>79.29886999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L173" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0357</v>
+        <v>0.0462</v>
       </c>
       <c r="O173" t="n">
         <v>218162</v>
@@ -10945,15 +10945,15 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-06-14</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -10974,22 +10974,22 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J174" t="n">
-        <v>77.00699</v>
+        <v>77.46536999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L174" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0357</v>
+        <v>0.0414</v>
       </c>
       <c r="O174" t="n">
         <v>218162</v>
@@ -11010,11 +11010,11 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-13</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -11035,13 +11035,13 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J175" t="n">
-        <v>75.17349</v>
+        <v>77.00699</v>
       </c>
       <c r="K175" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>6</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0366</v>
+        <v>0.0357</v>
       </c>
       <c r="O175" t="n">
         <v>218162</v>
@@ -11071,11 +11071,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2020-06-10</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -11096,13 +11096,13 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="J176" t="n">
-        <v>68.29786999999999</v>
+        <v>77.00699</v>
       </c>
       <c r="K176" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L176" t="n">
         <v>6</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0403</v>
+        <v>0.0357</v>
       </c>
       <c r="O176" t="n">
         <v>218162</v>
@@ -11132,11 +11132,11 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -11157,13 +11157,13 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="J177" t="n">
-        <v>60.5055</v>
+        <v>75.17349</v>
       </c>
       <c r="K177" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L177" t="n">
         <v>6</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0455</v>
+        <v>0.0366</v>
       </c>
       <c r="O177" t="n">
         <v>218162</v>
@@ -11193,11 +11193,11 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2020-06-08</t>
+          <t>2020-06-10</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -11218,13 +11218,13 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="J178" t="n">
-        <v>59.13036999999999</v>
+        <v>68.29786999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L178" t="n">
         <v>6</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0465</v>
+        <v>0.0403</v>
       </c>
       <c r="O178" t="n">
         <v>218162</v>
@@ -11254,11 +11254,11 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2020-06-07</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -11279,13 +11279,13 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J179" t="n">
-        <v>56.38012</v>
+        <v>60.5055</v>
       </c>
       <c r="K179" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L179" t="n">
         <v>6</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0488</v>
+        <v>0.0455</v>
       </c>
       <c r="O179" t="n">
         <v>218162</v>
@@ -11311,15 +11311,15 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
+          <t>2020-06-08</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -11340,13 +11340,13 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="J180" t="n">
-        <v>47.67100000000001</v>
+        <v>59.13036999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L180" t="n">
         <v>6</v>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0577</v>
+        <v>0.0465</v>
       </c>
       <c r="O180" t="n">
         <v>218162</v>
@@ -11372,15 +11372,15 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2020-06-05</t>
+          <t>2020-06-07</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -11401,13 +11401,13 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="J181" t="n">
-        <v>42.62887</v>
+        <v>56.38012</v>
       </c>
       <c r="K181" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L181" t="n">
         <v>6</v>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0645</v>
+        <v>0.0488</v>
       </c>
       <c r="O181" t="n">
         <v>218162</v>
@@ -11437,11 +11437,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2020-06-04</t>
+          <t>2020-06-06</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -11462,22 +11462,22 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="J182" t="n">
-        <v>28.41925</v>
+        <v>47.67100000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L182" t="n">
         <v>6</v>
       </c>
       <c r="M182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0968</v>
+        <v>0.0577</v>
       </c>
       <c r="O182" t="n">
         <v>218162</v>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2020-06-05</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -11523,22 +11523,22 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="J183" t="n">
-        <v>27.5025</v>
+        <v>42.62887</v>
       </c>
       <c r="K183" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="L183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M183" t="n">
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0833</v>
+        <v>0.0645</v>
       </c>
       <c r="O183" t="n">
         <v>218162</v>
@@ -11559,11 +11559,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>2020-06-04</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -11584,22 +11584,22 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J184" t="n">
-        <v>26.12737</v>
+        <v>28.41925</v>
       </c>
       <c r="K184" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0877</v>
+        <v>0.0968</v>
       </c>
       <c r="O184" t="n">
         <v>218162</v>
@@ -11620,11 +11620,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-06-03</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -11645,10 +11645,10 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J185" t="n">
-        <v>18.79337</v>
+        <v>27.5025</v>
       </c>
       <c r="K185" t="n">
         <v>3</v>
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0.122</v>
+        <v>0.0833</v>
       </c>
       <c r="O185" t="n">
         <v>218162</v>
@@ -11681,11 +11681,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -11706,22 +11706,22 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J186" t="n">
-        <v>17.41825</v>
+        <v>26.12737</v>
       </c>
       <c r="K186" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L186" t="n">
         <v>5</v>
       </c>
       <c r="M186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1316</v>
+        <v>0.0877</v>
       </c>
       <c r="O186" t="n">
         <v>218162</v>
@@ -11738,15 +11738,15 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
+          <t>2020-06-01</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -11767,22 +11767,22 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J187" t="n">
-        <v>16.5015</v>
+        <v>18.79337</v>
       </c>
       <c r="K187" t="n">
         <v>3</v>
       </c>
       <c r="L187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M187" t="n">
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1111</v>
+        <v>0.122</v>
       </c>
       <c r="O187" t="n">
         <v>218162</v>
@@ -11799,15 +11799,15 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2020-05-29</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -11828,22 +11828,22 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J188" t="n">
-        <v>15.12637</v>
+        <v>17.41825</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1212</v>
+        <v>0.1316</v>
       </c>
       <c r="O188" t="n">
         <v>218162</v>
@@ -11864,11 +11864,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-30</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -11889,22 +11889,22 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J189" t="n">
-        <v>15.12637</v>
+        <v>16.5015</v>
       </c>
       <c r="K189" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M189" t="n">
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1111</v>
       </c>
       <c r="O189" t="n">
         <v>218162</v>
@@ -11925,11 +11925,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-29</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -11950,22 +11950,22 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J190" t="n">
-        <v>16.5015</v>
+        <v>15.12637</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0833</v>
+        <v>0.1212</v>
       </c>
       <c r="O190" t="n">
         <v>218162</v>
@@ -11986,11 +11986,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -12011,13 +12011,13 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J191" t="n">
-        <v>16.5015</v>
+        <v>15.12637</v>
       </c>
       <c r="K191" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="L191" t="n">
         <v>3</v>
@@ -12026,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0833</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="O191" t="n">
         <v>218162</v>
@@ -12047,11 +12047,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J192" t="n">
-        <v>16.04312</v>
+        <v>16.5015</v>
       </c>
       <c r="K192" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>3</v>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0857</v>
+        <v>0.0833</v>
       </c>
       <c r="O192" t="n">
         <v>218162</v>
@@ -12108,11 +12108,11 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2020-05-24</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -12165,15 +12165,15 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -12200,13 +12200,13 @@
         <v>16.04312</v>
       </c>
       <c r="K194" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="L194" t="n">
         <v>3</v>
       </c>
       <c r="M194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194" t="n">
         <v>0.0857</v>
@@ -12226,15 +12226,15 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -12255,22 +12255,22 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J195" t="n">
-        <v>14.20962</v>
+        <v>16.5015</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195" t="n">
         <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0645</v>
+        <v>0.0833</v>
       </c>
       <c r="O195" t="n">
         <v>218162</v>
@@ -12291,11 +12291,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -12316,22 +12316,22 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J196" t="n">
-        <v>14.20962</v>
+        <v>16.04312</v>
       </c>
       <c r="K196" t="n">
         <v>4</v>
       </c>
       <c r="L196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0645</v>
+        <v>0.0857</v>
       </c>
       <c r="O196" t="n">
         <v>218162</v>
@@ -12352,11 +12352,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -12377,10 +12377,10 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J197" t="n">
-        <v>12.37612</v>
+        <v>14.20962</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0741</v>
+        <v>0.0645</v>
       </c>
       <c r="O197" t="n">
         <v>218162</v>
@@ -12413,11 +12413,11 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -12438,13 +12438,13 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J198" t="n">
-        <v>12.37612</v>
+        <v>14.20962</v>
       </c>
       <c r="K198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L198" t="n">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0741</v>
+        <v>0.0645</v>
       </c>
       <c r="O198" t="n">
         <v>218162</v>
@@ -12474,11 +12474,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -12499,10 +12499,10 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J199" t="n">
-        <v>11.91775</v>
+        <v>12.37612</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0769</v>
+        <v>0.0741</v>
       </c>
       <c r="O199" t="n">
         <v>218162</v>
@@ -12535,11 +12535,11 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -12560,13 +12560,13 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J200" t="n">
-        <v>11.91775</v>
+        <v>12.37612</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
         <v>2</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0769</v>
+        <v>0.0741</v>
       </c>
       <c r="O200" t="n">
         <v>218162</v>
@@ -12592,15 +12592,15 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -12653,15 +12653,15 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>11.91775</v>
       </c>
       <c r="K202" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>2</v>
@@ -12718,11 +12718,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -12743,10 +12743,10 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J203" t="n">
-        <v>5.5005</v>
+        <v>11.91775</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -12758,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1667</v>
+        <v>0.0769</v>
       </c>
       <c r="O203" t="n">
         <v>218162</v>
@@ -12779,11 +12779,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -12804,13 +12804,13 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J204" t="n">
-        <v>5.5005</v>
+        <v>11.91775</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L204" t="n">
         <v>2</v>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1667</v>
+        <v>0.0769</v>
       </c>
       <c r="O204" t="n">
         <v>218162</v>
@@ -12840,11 +12840,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>5.5005</v>
       </c>
       <c r="K205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>2</v>
@@ -12901,11 +12901,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -12926,10 +12926,10 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J206" t="n">
-        <v>4.58375</v>
+        <v>5.5005</v>
       </c>
       <c r="K206" t="n">
         <v>0</v>
@@ -12938,10 +12938,10 @@
         <v>2</v>
       </c>
       <c r="M206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="O206" t="n">
         <v>218162</v>
@@ -12962,11 +12962,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -12987,22 +12987,22 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J207" t="n">
-        <v>4.58375</v>
+        <v>5.5005</v>
       </c>
       <c r="K207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M207" t="n">
         <v>0</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1</v>
+        <v>0.1667</v>
       </c>
       <c r="O207" t="n">
         <v>218162</v>
@@ -13019,15 +13019,15 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -13048,22 +13048,22 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J208" t="n">
-        <v>4.125369999999999</v>
+        <v>4.58375</v>
       </c>
       <c r="K208" t="n">
         <v>0</v>
       </c>
       <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
         <v>1</v>
       </c>
-      <c r="M208" t="n">
-        <v>0</v>
-      </c>
       <c r="N208" t="n">
-        <v>0.1111</v>
+        <v>0.2</v>
       </c>
       <c r="O208" t="n">
         <v>218162</v>
@@ -13080,15 +13080,15 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -13109,13 +13109,13 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J209" t="n">
-        <v>4.125369999999999</v>
+        <v>4.58375</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="O209" t="n">
         <v>218162</v>
@@ -13145,11 +13145,11 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -13206,11 +13206,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -13267,11 +13267,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -13328,11 +13328,11 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -13389,11 +13389,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -13446,15 +13446,15 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -13507,15 +13507,15 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -13572,11 +13572,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -13633,11 +13633,11 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -13694,11 +13694,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -13755,11 +13755,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -13816,11 +13816,11 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>4.125369999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>1</v>
@@ -13873,15 +13873,15 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -13902,13 +13902,13 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J222" t="n">
-        <v>3.667</v>
+        <v>4.125369999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>1</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="O222" t="n">
         <v>218162</v>
@@ -13934,15 +13934,15 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -13963,13 +13963,13 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J223" t="n">
-        <v>3.20862</v>
+        <v>4.125369999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L223" t="n">
         <v>1</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1429</v>
+        <v>0.1111</v>
       </c>
       <c r="O223" t="n">
         <v>218162</v>
@@ -13999,11 +13999,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -14024,13 +14024,13 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J224" t="n">
-        <v>3.20862</v>
+        <v>3.667</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224" t="n">
         <v>1</v>
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="O224" t="n">
         <v>218162</v>
@@ -14060,11 +14060,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -14121,11 +14121,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -14182,11 +14182,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -14243,11 +14243,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>3.20862</v>
       </c>
       <c r="K228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>1</v>
@@ -14300,15 +14300,15 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -14329,10 +14329,10 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J229" t="n">
-        <v>2.29187</v>
+        <v>3.20862</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0.2</v>
+        <v>0.1429</v>
       </c>
       <c r="O229" t="n">
         <v>218162</v>
@@ -14361,15 +14361,15 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -14390,22 +14390,22 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J230" t="n">
-        <v>2.29187</v>
+        <v>3.20862</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
       <c r="M230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>0.2</v>
+        <v>0.1429</v>
       </c>
       <c r="O230" t="n">
         <v>218162</v>
@@ -14426,11 +14426,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -14460,13 +14460,13 @@
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O231" t="n">
         <v>218162</v>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -14521,13 +14521,13 @@
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O232" t="n">
         <v>218162</v>
@@ -14548,11 +14548,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -14609,11 +14609,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -14670,11 +14670,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -14727,15 +14727,15 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>2.29187</v>
       </c>
       <c r="K236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>0</v>
@@ -14788,15 +14788,15 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14817,10 +14817,10 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J237" t="n">
-        <v>1.37512</v>
+        <v>2.29187</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -14853,11 +14853,11 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -14878,13 +14878,13 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J238" t="n">
-        <v>1.37512</v>
+        <v>2.29187</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L238" t="n">
         <v>0</v>
@@ -14914,11 +14914,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -14975,11 +14975,11 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -15097,11 +15097,11 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>1.37512</v>
       </c>
       <c r="K242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>0</v>
@@ -15154,15 +15154,15 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -15183,10 +15183,10 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J243" t="n">
-        <v>0.91675</v>
+        <v>1.37512</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -15215,16 +15215,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>15</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
         <v>14</v>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>2020-04-03</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>12</v>
-      </c>
       <c r="E244" t="inlineStr">
         <is>
           <t>BA</t>
@@ -15244,13 +15244,13 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J244" t="n">
-        <v>0.91675</v>
+        <v>1.37512</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L244" t="n">
         <v>0</v>
@@ -15280,11 +15280,11 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -15341,11 +15341,11 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -15402,11 +15402,11 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -15463,11 +15463,11 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -15524,11 +15524,11 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -15581,15 +15581,15 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -15642,15 +15642,15 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -15707,11 +15707,11 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -15768,11 +15768,11 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -15829,11 +15829,11 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>0.91675</v>
       </c>
       <c r="K254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>0</v>
@@ -15890,55 +15890,177 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>3</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.91675</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>218162</v>
+      </c>
+      <c r="P255" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>13</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>2</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>2</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.91675</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>218162</v>
+      </c>
+      <c r="P256" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>13</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
           <t>2020-03-23</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D257" t="n">
         <v>1</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Juazeiro</t>
-        </is>
-      </c>
-      <c r="G255" t="n">
-        <v>2918407</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="I255" t="n">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Juazeiro</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>2918407</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
         <v>1</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J257" t="n">
         <v>0.45837</v>
       </c>
-      <c r="K255" t="n">
+      <c r="K257" t="n">
         <v>1</v>
       </c>
-      <c r="L255" t="n">
-        <v>0</v>
-      </c>
-      <c r="M255" t="n">
-        <v>0</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0</v>
-      </c>
-      <c r="O255" t="n">
-        <v>218162</v>
-      </c>
-      <c r="P255" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q255" t="b">
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>218162</v>
+      </c>
+      <c r="P257" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="b">
         <v>0</v>
       </c>
     </row>
